--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4502,28 +4502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5383.64555913711</v>
+        <v>6009.941104375357</v>
       </c>
       <c r="AB2" t="n">
-        <v>7366.14136369129</v>
+        <v>8223.066558895725</v>
       </c>
       <c r="AC2" t="n">
-        <v>6663.127170384652</v>
+        <v>7438.268627660807</v>
       </c>
       <c r="AD2" t="n">
-        <v>5383645.55913711</v>
+        <v>6009941.104375357</v>
       </c>
       <c r="AE2" t="n">
-        <v>7366141.36369129</v>
+        <v>8223066.558895725</v>
       </c>
       <c r="AF2" t="n">
         <v>1.255444396104572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>125.0231481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>6663127.170384652</v>
+        <v>7438268.627660807</v>
       </c>
     </row>
     <row r="3">
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3244.054815223833</v>
+        <v>3684.402621744243</v>
       </c>
       <c r="AB3" t="n">
-        <v>4438.658915787216</v>
+        <v>5041.162211442626</v>
       </c>
       <c r="AC3" t="n">
-        <v>4015.039538561232</v>
+        <v>4560.040765297953</v>
       </c>
       <c r="AD3" t="n">
-        <v>3244054.815223833</v>
+        <v>3684402.621744243</v>
       </c>
       <c r="AE3" t="n">
-        <v>4438658.915787216</v>
+        <v>5041162.211442626</v>
       </c>
       <c r="AF3" t="n">
         <v>1.77725796666089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>89</v>
+        <v>88.31018518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>4015039.538561232</v>
+        <v>4560040.765297953</v>
       </c>
     </row>
     <row r="4">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2774.900554803675</v>
+        <v>3166.339920391124</v>
       </c>
       <c r="AB4" t="n">
-        <v>3796.741359055116</v>
+        <v>4332.325968137913</v>
       </c>
       <c r="AC4" t="n">
-        <v>3434.385692506718</v>
+        <v>3918.854858196352</v>
       </c>
       <c r="AD4" t="n">
-        <v>2774900.554803675</v>
+        <v>3166339.920391125</v>
       </c>
       <c r="AE4" t="n">
-        <v>3796741.359055116</v>
+        <v>4332325.968137913</v>
       </c>
       <c r="AF4" t="n">
         <v>1.982972931976361e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>79.14351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>3434385.692506718</v>
+        <v>3918854.858196352</v>
       </c>
     </row>
     <row r="5">
@@ -4820,28 +4820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2552.702120641967</v>
+        <v>2934.351953929211</v>
       </c>
       <c r="AB5" t="n">
-        <v>3492.719658731974</v>
+        <v>4014.909797837945</v>
       </c>
       <c r="AC5" t="n">
-        <v>3159.379396565291</v>
+        <v>3631.732441693433</v>
       </c>
       <c r="AD5" t="n">
-        <v>2552702.120641967</v>
+        <v>2934351.953929211</v>
       </c>
       <c r="AE5" t="n">
-        <v>3492719.658731974</v>
+        <v>4014909.797837945</v>
       </c>
       <c r="AF5" t="n">
         <v>2.093763391213501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.96527777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>3159379.396565291</v>
+        <v>3631732.441693433</v>
       </c>
     </row>
     <row r="6">
@@ -4926,28 +4926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2431.811424804785</v>
+        <v>2793.952546388894</v>
       </c>
       <c r="AB6" t="n">
-        <v>3327.311675366438</v>
+        <v>3822.809134456561</v>
       </c>
       <c r="AC6" t="n">
-        <v>3009.757718980606</v>
+        <v>3457.965596010199</v>
       </c>
       <c r="AD6" t="n">
-        <v>2431811.424804784</v>
+        <v>2793952.546388893</v>
       </c>
       <c r="AE6" t="n">
-        <v>3327311.675366438</v>
+        <v>3822809.13445656</v>
       </c>
       <c r="AF6" t="n">
         <v>2.162380248464409e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.58101851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>3009757.718980606</v>
+        <v>3457965.596010199</v>
       </c>
     </row>
     <row r="7">
@@ -5032,28 +5032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2353.615717920559</v>
+        <v>2705.900998426615</v>
       </c>
       <c r="AB7" t="n">
-        <v>3220.320859456318</v>
+        <v>3702.333121974426</v>
       </c>
       <c r="AC7" t="n">
-        <v>2912.977956378398</v>
+        <v>3348.98764507022</v>
       </c>
       <c r="AD7" t="n">
-        <v>2353615.717920559</v>
+        <v>2705900.998426615</v>
       </c>
       <c r="AE7" t="n">
-        <v>3220320.859456317</v>
+        <v>3702333.121974426</v>
       </c>
       <c r="AF7" t="n">
         <v>2.208486437131028e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>72</v>
+        <v>71.06481481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>2912977.956378398</v>
+        <v>3348987.645070219</v>
       </c>
     </row>
     <row r="8">
@@ -5138,28 +5138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2276.715343995586</v>
+        <v>2629.033778890566</v>
       </c>
       <c r="AB8" t="n">
-        <v>3115.102375247105</v>
+        <v>3597.160001062808</v>
       </c>
       <c r="AC8" t="n">
-        <v>2817.801376627046</v>
+        <v>3253.852099207008</v>
       </c>
       <c r="AD8" t="n">
-        <v>2276715.343995587</v>
+        <v>2629033.778890566</v>
       </c>
       <c r="AE8" t="n">
-        <v>3115102.375247105</v>
+        <v>3597160.001062808</v>
       </c>
       <c r="AF8" t="n">
         <v>2.244693355878049e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.91898148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>2817801.376627047</v>
+        <v>3253852.099207007</v>
       </c>
     </row>
     <row r="9">
@@ -5244,28 +5244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2227.600735462982</v>
+        <v>2570.097494698689</v>
       </c>
       <c r="AB9" t="n">
-        <v>3047.901601069187</v>
+        <v>3516.520776946124</v>
       </c>
       <c r="AC9" t="n">
-        <v>2757.014150019792</v>
+        <v>3180.908969462161</v>
       </c>
       <c r="AD9" t="n">
-        <v>2227600.735462982</v>
+        <v>2570097.494698689</v>
       </c>
       <c r="AE9" t="n">
-        <v>3047901.601069187</v>
+        <v>3516520.776946124</v>
       </c>
       <c r="AF9" t="n">
         <v>2.273035101264294e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>70</v>
+        <v>69.05092592592592</v>
       </c>
       <c r="AH9" t="n">
-        <v>2757014.150019792</v>
+        <v>3180908.96946216</v>
       </c>
     </row>
     <row r="10">
@@ -5350,28 +5350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2181.215371400297</v>
+        <v>2523.677965217226</v>
       </c>
       <c r="AB10" t="n">
-        <v>2984.435099580611</v>
+        <v>3453.007528824474</v>
       </c>
       <c r="AC10" t="n">
-        <v>2699.604802357607</v>
+        <v>3123.45733659984</v>
       </c>
       <c r="AD10" t="n">
-        <v>2181215.371400297</v>
+        <v>2523677.965217226</v>
       </c>
       <c r="AE10" t="n">
-        <v>2984435.099580611</v>
+        <v>3453007.528824474</v>
       </c>
       <c r="AF10" t="n">
         <v>2.292426821791724e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>69</v>
+        <v>68.46064814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>2699604.802357607</v>
+        <v>3123457.33659984</v>
       </c>
     </row>
     <row r="11">
@@ -5456,28 +5456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2139.489916956817</v>
+        <v>2482.019830581451</v>
       </c>
       <c r="AB11" t="n">
-        <v>2927.344492013909</v>
+        <v>3396.00903118861</v>
       </c>
       <c r="AC11" t="n">
-        <v>2647.962842249899</v>
+        <v>3071.898695580452</v>
       </c>
       <c r="AD11" t="n">
-        <v>2139489.916956817</v>
+        <v>2482019.830581451</v>
       </c>
       <c r="AE11" t="n">
-        <v>2927344.492013909</v>
+        <v>3396009.03118861</v>
       </c>
       <c r="AF11" t="n">
         <v>2.308970807136805e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>68</v>
+        <v>67.97453703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>2647962.842249899</v>
+        <v>3071898.695580452</v>
       </c>
     </row>
     <row r="12">
@@ -5562,28 +5562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2109.802305682187</v>
+        <v>2452.332219306821</v>
       </c>
       <c r="AB12" t="n">
-        <v>2886.724592542986</v>
+        <v>3355.389131717685</v>
       </c>
       <c r="AC12" t="n">
-        <v>2611.219648974095</v>
+        <v>3035.155502304646</v>
       </c>
       <c r="AD12" t="n">
-        <v>2109802.305682187</v>
+        <v>2452332.219306821</v>
       </c>
       <c r="AE12" t="n">
-        <v>2886724.592542985</v>
+        <v>3355389.131717685</v>
       </c>
       <c r="AF12" t="n">
         <v>2.321853418676007e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>68</v>
+        <v>67.5925925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>2611219.648974095</v>
+        <v>3035155.502304646</v>
       </c>
     </row>
     <row r="13">
@@ -5668,28 +5668,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2071.757862358997</v>
+        <v>2404.466100324359</v>
       </c>
       <c r="AB13" t="n">
-        <v>2834.670506785814</v>
+        <v>3289.896596021744</v>
       </c>
       <c r="AC13" t="n">
-        <v>2564.133532103219</v>
+        <v>2975.913482296177</v>
       </c>
       <c r="AD13" t="n">
-        <v>2071757.862358998</v>
+        <v>2404466.100324359</v>
       </c>
       <c r="AE13" t="n">
-        <v>2834670.506785814</v>
+        <v>3289896.596021744</v>
       </c>
       <c r="AF13" t="n">
         <v>2.335820881713248e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>68</v>
+        <v>67.19907407407408</v>
       </c>
       <c r="AH13" t="n">
-        <v>2564133.532103219</v>
+        <v>2975913.482296177</v>
       </c>
     </row>
     <row r="14">
@@ -5774,28 +5774,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2036.275067234937</v>
+        <v>2378.77081544079</v>
       </c>
       <c r="AB14" t="n">
-        <v>2786.121381106633</v>
+        <v>3254.739173648079</v>
       </c>
       <c r="AC14" t="n">
-        <v>2520.217866839733</v>
+        <v>2944.111434970103</v>
       </c>
       <c r="AD14" t="n">
-        <v>2036275.067234937</v>
+        <v>2378770.81544079</v>
       </c>
       <c r="AE14" t="n">
-        <v>2786121.381106633</v>
+        <v>3254739.173648079</v>
       </c>
       <c r="AF14" t="n">
         <v>2.343414842199515e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>67</v>
+        <v>66.97916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2520217.866839733</v>
+        <v>2944111.434970103</v>
       </c>
     </row>
     <row r="15">
@@ -5880,28 +5880,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2014.019239727746</v>
+        <v>2356.514987933599</v>
       </c>
       <c r="AB15" t="n">
-        <v>2755.669976053481</v>
+        <v>3224.287768594925</v>
       </c>
       <c r="AC15" t="n">
-        <v>2492.672701146039</v>
+        <v>2916.566269276408</v>
       </c>
       <c r="AD15" t="n">
-        <v>2014019.239727746</v>
+        <v>2356514.987933599</v>
       </c>
       <c r="AE15" t="n">
-        <v>2755669.976053481</v>
+        <v>3224287.768594925</v>
       </c>
       <c r="AF15" t="n">
         <v>2.351144409123036e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>67</v>
+        <v>66.75925925925925</v>
       </c>
       <c r="AH15" t="n">
-        <v>2492672.701146039</v>
+        <v>2916566.269276408</v>
       </c>
     </row>
     <row r="16">
@@ -5986,28 +5986,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2007.659640807832</v>
+        <v>2350.155389013684</v>
       </c>
       <c r="AB16" t="n">
-        <v>2746.968492245551</v>
+        <v>3215.586284786994</v>
       </c>
       <c r="AC16" t="n">
-        <v>2484.801674740128</v>
+        <v>2908.695242870498</v>
       </c>
       <c r="AD16" t="n">
-        <v>2007659.640807832</v>
+        <v>2350155.389013684</v>
       </c>
       <c r="AE16" t="n">
-        <v>2746968.492245551</v>
+        <v>3215586.284786995</v>
       </c>
       <c r="AF16" t="n">
         <v>2.353314112119112e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>67</v>
+        <v>66.68981481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>2484801.674740128</v>
+        <v>2908695.242870498</v>
       </c>
     </row>
     <row r="17">
@@ -6092,28 +6092,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2012.939859558771</v>
+        <v>2355.435607764623</v>
       </c>
       <c r="AB17" t="n">
-        <v>2754.193120487397</v>
+        <v>3222.810913028841</v>
       </c>
       <c r="AC17" t="n">
-        <v>2491.336794602402</v>
+        <v>2915.230362732771</v>
       </c>
       <c r="AD17" t="n">
-        <v>2012939.859558771</v>
+        <v>2355435.607764624</v>
       </c>
       <c r="AE17" t="n">
-        <v>2754193.120487397</v>
+        <v>3222810.913028841</v>
       </c>
       <c r="AF17" t="n">
         <v>2.353585324993622e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>67</v>
+        <v>66.68981481481481</v>
       </c>
       <c r="AH17" t="n">
-        <v>2491336.794602402</v>
+        <v>2915230.362732771</v>
       </c>
     </row>
   </sheetData>
@@ -6389,28 +6389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4113.722036478734</v>
+        <v>4655.662972820742</v>
       </c>
       <c r="AB2" t="n">
-        <v>5628.575974918233</v>
+        <v>6370.083472768129</v>
       </c>
       <c r="AC2" t="n">
-        <v>5091.392583627822</v>
+        <v>5762.131646595204</v>
       </c>
       <c r="AD2" t="n">
-        <v>4113722.036478734</v>
+        <v>4655662.972820742</v>
       </c>
       <c r="AE2" t="n">
-        <v>5628575.974918233</v>
+        <v>6370083.472768129</v>
       </c>
       <c r="AF2" t="n">
         <v>1.571920847457933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>110</v>
+        <v>109.2476851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>5091392.583627822</v>
+        <v>5762131.646595204</v>
       </c>
     </row>
     <row r="3">
@@ -6495,28 +6495,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2724.533020728907</v>
+        <v>3140.694137927214</v>
       </c>
       <c r="AB3" t="n">
-        <v>3727.826276875235</v>
+        <v>4297.236277158717</v>
       </c>
       <c r="AC3" t="n">
-        <v>3372.047769047162</v>
+        <v>3887.114078075521</v>
       </c>
       <c r="AD3" t="n">
-        <v>2724533.020728907</v>
+        <v>3140694.137927214</v>
       </c>
       <c r="AE3" t="n">
-        <v>3727826.276875235</v>
+        <v>4297236.277158717</v>
       </c>
       <c r="AF3" t="n">
         <v>2.081007163073203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>83</v>
+        <v>82.52314814814814</v>
       </c>
       <c r="AH3" t="n">
-        <v>3372047.769047162</v>
+        <v>3887114.078075521</v>
       </c>
     </row>
     <row r="4">
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2383.598432557453</v>
+        <v>2760.970033347623</v>
       </c>
       <c r="AB4" t="n">
-        <v>3261.344532366534</v>
+        <v>3777.681005027711</v>
       </c>
       <c r="AC4" t="n">
-        <v>2950.086387523148</v>
+        <v>3417.144431916314</v>
       </c>
       <c r="AD4" t="n">
-        <v>2383598.432557453</v>
+        <v>2760970.033347623</v>
       </c>
       <c r="AE4" t="n">
-        <v>3261344.532366534</v>
+        <v>3777681.005027711</v>
       </c>
       <c r="AF4" t="n">
         <v>2.276718282366861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>76</v>
+        <v>75.42824074074075</v>
       </c>
       <c r="AH4" t="n">
-        <v>2950086.387523148</v>
+        <v>3417144.431916314</v>
       </c>
     </row>
     <row r="5">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2224.583334789362</v>
+        <v>2582.628002698097</v>
       </c>
       <c r="AB5" t="n">
-        <v>3043.773060349217</v>
+        <v>3533.665570797912</v>
       </c>
       <c r="AC5" t="n">
-        <v>2753.279631431694</v>
+        <v>3196.417488251603</v>
       </c>
       <c r="AD5" t="n">
-        <v>2224583.334789362</v>
+        <v>2582628.002698097</v>
       </c>
       <c r="AE5" t="n">
-        <v>3043773.060349217</v>
+        <v>3533665.570797912</v>
       </c>
       <c r="AF5" t="n">
         <v>2.379099383437842e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2753279.631431694</v>
+        <v>3196417.488251603</v>
       </c>
     </row>
     <row r="6">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2124.391835780148</v>
+        <v>2472.755954538776</v>
       </c>
       <c r="AB6" t="n">
-        <v>2906.686631267656</v>
+        <v>3383.333787293654</v>
       </c>
       <c r="AC6" t="n">
-        <v>2629.27653873978</v>
+        <v>3060.433159173015</v>
       </c>
       <c r="AD6" t="n">
-        <v>2124391.835780147</v>
+        <v>2472755.954538776</v>
       </c>
       <c r="AE6" t="n">
-        <v>2906686.631267656</v>
+        <v>3383333.787293654</v>
       </c>
       <c r="AF6" t="n">
         <v>2.441863449746574e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>71</v>
+        <v>70.32407407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>2629276.53873978</v>
+        <v>3060433.159173015</v>
       </c>
     </row>
     <row r="7">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2050.915966543894</v>
+        <v>2389.633701571196</v>
       </c>
       <c r="AB7" t="n">
-        <v>2806.15370545204</v>
+        <v>3269.602253688415</v>
       </c>
       <c r="AC7" t="n">
-        <v>2538.338334265159</v>
+        <v>2957.556003511853</v>
       </c>
       <c r="AD7" t="n">
-        <v>2050915.966543894</v>
+        <v>2389633.701571196</v>
       </c>
       <c r="AE7" t="n">
-        <v>2806153.70545204</v>
+        <v>3269602.253688415</v>
       </c>
       <c r="AF7" t="n">
         <v>2.486376971951349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.07407407407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>2538338.334265159</v>
+        <v>2957556.003511854</v>
       </c>
     </row>
     <row r="8">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1995.172546844765</v>
+        <v>2333.856116453285</v>
       </c>
       <c r="AB8" t="n">
-        <v>2729.883099393577</v>
+        <v>3193.2849009967</v>
       </c>
       <c r="AC8" t="n">
-        <v>2469.346887802447</v>
+        <v>2888.522271848961</v>
       </c>
       <c r="AD8" t="n">
-        <v>1995172.546844765</v>
+        <v>2333856.116453285</v>
       </c>
       <c r="AE8" t="n">
-        <v>2729883.099393577</v>
+        <v>3193284.9009967</v>
       </c>
       <c r="AF8" t="n">
         <v>2.516646167050595e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>69</v>
+        <v>68.24074074074075</v>
       </c>
       <c r="AH8" t="n">
-        <v>2469346.887802447</v>
+        <v>2888522.271848961</v>
       </c>
     </row>
     <row r="9">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1939.513121758388</v>
+        <v>2278.264011174613</v>
       </c>
       <c r="AB9" t="n">
-        <v>2653.727418469864</v>
+        <v>3117.221330003823</v>
       </c>
       <c r="AC9" t="n">
-        <v>2400.459398180924</v>
+        <v>2819.718101315756</v>
       </c>
       <c r="AD9" t="n">
-        <v>1939513.121758388</v>
+        <v>2278264.011174613</v>
       </c>
       <c r="AE9" t="n">
-        <v>2653727.418469864</v>
+        <v>3117221.330003823</v>
       </c>
       <c r="AF9" t="n">
         <v>2.539644820189729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.61574074074075</v>
       </c>
       <c r="AH9" t="n">
-        <v>2400459.398180924</v>
+        <v>2819718.101315755</v>
       </c>
     </row>
     <row r="10">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1902.686871638402</v>
+        <v>2231.724057515595</v>
       </c>
       <c r="AB10" t="n">
-        <v>2603.340118396206</v>
+        <v>3053.543312209702</v>
       </c>
       <c r="AC10" t="n">
-        <v>2354.880991307276</v>
+        <v>2762.117424167248</v>
       </c>
       <c r="AD10" t="n">
-        <v>1902686.871638402</v>
+        <v>2231724.057515595</v>
       </c>
       <c r="AE10" t="n">
-        <v>2603340.118396205</v>
+        <v>3053543.312209703</v>
       </c>
       <c r="AF10" t="n">
         <v>2.558934013145131e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>68</v>
+        <v>67.10648148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>2354880.991307275</v>
+        <v>2762117.424167248</v>
       </c>
     </row>
     <row r="11">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1861.949537446038</v>
+        <v>2200.666261443482</v>
       </c>
       <c r="AB11" t="n">
-        <v>2547.60150054987</v>
+        <v>3011.048665450575</v>
       </c>
       <c r="AC11" t="n">
-        <v>2304.461988918552</v>
+        <v>2723.678406853202</v>
       </c>
       <c r="AD11" t="n">
-        <v>1861949.537446038</v>
+        <v>2200666.261443482</v>
       </c>
       <c r="AE11" t="n">
-        <v>2547601.50054987</v>
+        <v>3011048.665450575</v>
       </c>
       <c r="AF11" t="n">
         <v>2.571397799362468e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.7824074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>2304461.988918552</v>
+        <v>2723678.406853202</v>
       </c>
     </row>
     <row r="12">
@@ -7449,28 +7449,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1861.384536257972</v>
+        <v>2200.101260255416</v>
       </c>
       <c r="AB12" t="n">
-        <v>2546.828440998265</v>
+        <v>3010.27560589897</v>
       </c>
       <c r="AC12" t="n">
-        <v>2303.762709085557</v>
+        <v>2722.979127020206</v>
       </c>
       <c r="AD12" t="n">
-        <v>1861384.536257972</v>
+        <v>2200101.260255416</v>
       </c>
       <c r="AE12" t="n">
-        <v>2546828.440998265</v>
+        <v>3010275.60589897</v>
       </c>
       <c r="AF12" t="n">
         <v>2.572584826621262e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.75925925925925</v>
       </c>
       <c r="AH12" t="n">
-        <v>2303762.709085557</v>
+        <v>2722979.127020206</v>
       </c>
     </row>
   </sheetData>
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2072.631351986646</v>
+        <v>2465.493254217602</v>
       </c>
       <c r="AB2" t="n">
-        <v>2835.865653830005</v>
+        <v>3373.396640306498</v>
       </c>
       <c r="AC2" t="n">
-        <v>2565.214615990912</v>
+        <v>3051.444399547439</v>
       </c>
       <c r="AD2" t="n">
-        <v>2072631.351986646</v>
+        <v>2465493.254217601</v>
       </c>
       <c r="AE2" t="n">
-        <v>2835865.653830005</v>
+        <v>3373396.640306498</v>
       </c>
       <c r="AF2" t="n">
         <v>2.930522848231777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.79398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>2565214.615990912</v>
+        <v>3051444.399547439</v>
       </c>
     </row>
     <row r="3">
@@ -7852,28 +7852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1655.308941921533</v>
+        <v>1992.004799325203</v>
       </c>
       <c r="AB3" t="n">
-        <v>2264.866721413567</v>
+        <v>2725.548847486155</v>
       </c>
       <c r="AC3" t="n">
-        <v>2048.711020282263</v>
+        <v>2465.426290813909</v>
       </c>
       <c r="AD3" t="n">
-        <v>1655308.941921534</v>
+        <v>1992004.799325203</v>
       </c>
       <c r="AE3" t="n">
-        <v>2264866.721413567</v>
+        <v>2725548.847486155</v>
       </c>
       <c r="AF3" t="n">
         <v>3.370619035687079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>72</v>
+        <v>71.11111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2048711.020282263</v>
+        <v>2465426.290813909</v>
       </c>
     </row>
     <row r="4">
@@ -7958,28 +7958,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1514.66221800268</v>
+        <v>1841.968428247842</v>
       </c>
       <c r="AB4" t="n">
-        <v>2072.427668852252</v>
+        <v>2520.262465440574</v>
       </c>
       <c r="AC4" t="n">
-        <v>1874.638080807494</v>
+        <v>2279.732152949511</v>
       </c>
       <c r="AD4" t="n">
-        <v>1514662.21800268</v>
+        <v>1841968.428247842</v>
       </c>
       <c r="AE4" t="n">
-        <v>2072427.668852252</v>
+        <v>2520262.465440574</v>
       </c>
       <c r="AF4" t="n">
         <v>3.512278232025633e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.24074074074075</v>
       </c>
       <c r="AH4" t="n">
-        <v>1874638.080807494</v>
+        <v>2279732.152949511</v>
       </c>
     </row>
     <row r="5">
@@ -8064,28 +8064,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1516.872902079878</v>
+        <v>1844.17911232504</v>
       </c>
       <c r="AB5" t="n">
-        <v>2075.452424335173</v>
+        <v>2523.287220923495</v>
       </c>
       <c r="AC5" t="n">
-        <v>1877.374157872396</v>
+        <v>2282.468230014413</v>
       </c>
       <c r="AD5" t="n">
-        <v>1516872.902079878</v>
+        <v>1844179.11232504</v>
       </c>
       <c r="AE5" t="n">
-        <v>2075452.424335172</v>
+        <v>2523287.220923495</v>
       </c>
       <c r="AF5" t="n">
         <v>3.513935064731347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.2175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1877374.157872396</v>
+        <v>2282468.230014413</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2678.0577373782</v>
+        <v>3114.120312642964</v>
       </c>
       <c r="AB2" t="n">
-        <v>3664.236743849999</v>
+        <v>4260.876797050372</v>
       </c>
       <c r="AC2" t="n">
-        <v>3314.527131805387</v>
+        <v>3854.224695717868</v>
       </c>
       <c r="AD2" t="n">
-        <v>2678057.7373782</v>
+        <v>3114120.312642964</v>
       </c>
       <c r="AE2" t="n">
-        <v>3664236.743849999</v>
+        <v>4260876.797050373</v>
       </c>
       <c r="AF2" t="n">
         <v>2.305390355951214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.0462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>3314527.131805387</v>
+        <v>3854224.695717868</v>
       </c>
     </row>
     <row r="3">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2009.822823898818</v>
+        <v>2379.540562653155</v>
       </c>
       <c r="AB3" t="n">
-        <v>2749.928254783541</v>
+        <v>3255.792375742887</v>
       </c>
       <c r="AC3" t="n">
-        <v>2487.478961695545</v>
+        <v>2945.064120935162</v>
       </c>
       <c r="AD3" t="n">
-        <v>2009822.823898818</v>
+        <v>2379540.562653155</v>
       </c>
       <c r="AE3" t="n">
-        <v>2749928.254783541</v>
+        <v>3255792.375742887</v>
       </c>
       <c r="AF3" t="n">
         <v>2.776906712400237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>74.75694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2487478.961695545</v>
+        <v>2945064.120935162</v>
       </c>
     </row>
     <row r="4">
@@ -8573,28 +8573,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1816.944785271818</v>
+        <v>2158.181659251793</v>
       </c>
       <c r="AB4" t="n">
-        <v>2486.024013155564</v>
+        <v>2952.919358443365</v>
       </c>
       <c r="AC4" t="n">
-        <v>2248.761370496613</v>
+        <v>2671.096879321879</v>
       </c>
       <c r="AD4" t="n">
-        <v>1816944.785271818</v>
+        <v>2158181.659251792</v>
       </c>
       <c r="AE4" t="n">
-        <v>2486024.013155564</v>
+        <v>2952919.358443365</v>
       </c>
       <c r="AF4" t="n">
         <v>2.946035629909339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>71</v>
+        <v>70.46296296296298</v>
       </c>
       <c r="AH4" t="n">
-        <v>2248761.370496613</v>
+        <v>2671096.879321878</v>
       </c>
     </row>
     <row r="5">
@@ -8679,28 +8679,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1705.621549542377</v>
+        <v>2037.375853393872</v>
       </c>
       <c r="AB5" t="n">
-        <v>2333.706650796</v>
+        <v>2787.627525292547</v>
       </c>
       <c r="AC5" t="n">
-        <v>2110.980963421885</v>
+        <v>2521.58026673843</v>
       </c>
       <c r="AD5" t="n">
-        <v>1705621.549542377</v>
+        <v>2037375.853393872</v>
       </c>
       <c r="AE5" t="n">
-        <v>2333706.650796</v>
+        <v>2787627.525292546</v>
       </c>
       <c r="AF5" t="n">
         <v>3.034814860203088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68.40277777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>2110980.963421885</v>
+        <v>2521580.26673843</v>
       </c>
     </row>
     <row r="6">
@@ -8785,28 +8785,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1637.570417199764</v>
+        <v>1969.290555632478</v>
       </c>
       <c r="AB6" t="n">
-        <v>2240.596089320763</v>
+        <v>2694.470217184061</v>
       </c>
       <c r="AC6" t="n">
-        <v>2026.756743252351</v>
+        <v>2437.313761368715</v>
       </c>
       <c r="AD6" t="n">
-        <v>1637570.417199764</v>
+        <v>1969290.555632478</v>
       </c>
       <c r="AE6" t="n">
-        <v>2240596.089320763</v>
+        <v>2694470.217184061</v>
       </c>
       <c r="AF6" t="n">
         <v>3.082343135006812e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.34953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>2026756.74325235</v>
+        <v>2437313.761368715</v>
       </c>
     </row>
     <row r="7">
@@ -8891,28 +8891,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1636.029766131159</v>
+        <v>1958.335665272956</v>
       </c>
       <c r="AB7" t="n">
-        <v>2238.488102559969</v>
+        <v>2679.481252898509</v>
       </c>
       <c r="AC7" t="n">
-        <v>2024.849939789429</v>
+        <v>2423.755322797433</v>
       </c>
       <c r="AD7" t="n">
-        <v>1636029.766131159</v>
+        <v>1958335.665272956</v>
       </c>
       <c r="AE7" t="n">
-        <v>2238488.102559969</v>
+        <v>2679481.25289851</v>
       </c>
       <c r="AF7" t="n">
         <v>3.085571470653858e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.2800925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>2024849.939789429</v>
+        <v>2423755.322797433</v>
       </c>
     </row>
   </sheetData>
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1683.875335046006</v>
+        <v>2044.538168856649</v>
       </c>
       <c r="AB2" t="n">
-        <v>2303.95252074679</v>
+        <v>2797.427321287776</v>
       </c>
       <c r="AC2" t="n">
-        <v>2084.066525784388</v>
+        <v>2530.444783957974</v>
       </c>
       <c r="AD2" t="n">
-        <v>1683875.335046006</v>
+        <v>2044538.168856649</v>
       </c>
       <c r="AE2" t="n">
-        <v>2303952.52074679</v>
+        <v>2797427.321287775</v>
       </c>
       <c r="AF2" t="n">
         <v>3.594198086153187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.3888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2084066.525784388</v>
+        <v>2530444.783957974</v>
       </c>
     </row>
     <row r="3">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1417.040316237622</v>
+        <v>1749.915255055953</v>
       </c>
       <c r="AB3" t="n">
-        <v>1938.85707608295</v>
+        <v>2394.311252780048</v>
       </c>
       <c r="AC3" t="n">
-        <v>1753.81527794459</v>
+        <v>2165.801547251669</v>
       </c>
       <c r="AD3" t="n">
-        <v>1417040.316237622</v>
+        <v>1749915.255055953</v>
       </c>
       <c r="AE3" t="n">
-        <v>1938857.07608295</v>
+        <v>2394311.252780048</v>
       </c>
       <c r="AF3" t="n">
         <v>3.953333243388927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1753815.27794459</v>
+        <v>2165801.547251669</v>
       </c>
     </row>
     <row r="4">
@@ -9400,28 +9400,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1422.673133667502</v>
+        <v>1755.548072485833</v>
       </c>
       <c r="AB4" t="n">
-        <v>1946.564145392879</v>
+        <v>2402.018322089977</v>
       </c>
       <c r="AC4" t="n">
-        <v>1760.786795376519</v>
+        <v>2172.773064683598</v>
       </c>
       <c r="AD4" t="n">
-        <v>1422673.133667502</v>
+        <v>1755548.072485833</v>
       </c>
       <c r="AE4" t="n">
-        <v>1946564.145392879</v>
+        <v>2402018.322089977</v>
       </c>
       <c r="AF4" t="n">
         <v>3.955942547701736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.39814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1760786.795376519</v>
+        <v>2172773.064683598</v>
       </c>
     </row>
   </sheetData>
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4394.354865343328</v>
+        <v>4967.010831480205</v>
       </c>
       <c r="AB2" t="n">
-        <v>6012.550192017421</v>
+        <v>6796.083348684136</v>
       </c>
       <c r="AC2" t="n">
-        <v>5438.720840358246</v>
+        <v>6147.474692248352</v>
       </c>
       <c r="AD2" t="n">
-        <v>4394354.865343329</v>
+        <v>4967010.831480205</v>
       </c>
       <c r="AE2" t="n">
-        <v>6012550.192017421</v>
+        <v>6796083.348684136</v>
       </c>
       <c r="AF2" t="n">
         <v>1.484138116188254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>113</v>
+        <v>112.9166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5438720.840358246</v>
+        <v>6147474.692248352</v>
       </c>
     </row>
     <row r="3">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2844.784184152582</v>
+        <v>3271.840385225837</v>
       </c>
       <c r="AB3" t="n">
-        <v>3892.359223778431</v>
+        <v>4476.676358476795</v>
       </c>
       <c r="AC3" t="n">
-        <v>3520.877922421352</v>
+        <v>4049.428649878331</v>
       </c>
       <c r="AD3" t="n">
-        <v>2844784.184152582</v>
+        <v>3271840.385225837</v>
       </c>
       <c r="AE3" t="n">
-        <v>3892359.223778431</v>
+        <v>4476676.358476795</v>
       </c>
       <c r="AF3" t="n">
         <v>1.997432713445557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>84</v>
+        <v>83.90046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>3520877.922421352</v>
+        <v>4049428.649878331</v>
       </c>
     </row>
     <row r="4">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2480.925612503313</v>
+        <v>2859.438181112292</v>
       </c>
       <c r="AB4" t="n">
-        <v>3394.511873740607</v>
+        <v>3912.409468907426</v>
       </c>
       <c r="AC4" t="n">
-        <v>3070.544424738012</v>
+        <v>3539.01460029593</v>
       </c>
       <c r="AD4" t="n">
-        <v>2480925.612503313</v>
+        <v>2859438.181112292</v>
       </c>
       <c r="AE4" t="n">
-        <v>3394511.873740607</v>
+        <v>3912409.468907426</v>
       </c>
       <c r="AF4" t="n">
         <v>2.194931678370511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>77</v>
+        <v>76.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3070544.424738012</v>
+        <v>3539014.60029593</v>
       </c>
     </row>
     <row r="5">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2303.247577220837</v>
+        <v>2672.084371519912</v>
       </c>
       <c r="AB5" t="n">
-        <v>3151.404947265413</v>
+        <v>3656.063721156385</v>
       </c>
       <c r="AC5" t="n">
-        <v>2850.639282122906</v>
+        <v>3307.134130926742</v>
       </c>
       <c r="AD5" t="n">
-        <v>2303247.577220837</v>
+        <v>2672084.371519912</v>
       </c>
       <c r="AE5" t="n">
-        <v>3151404.947265413</v>
+        <v>3656063.721156385</v>
       </c>
       <c r="AF5" t="n">
         <v>2.298893743484966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>72.89351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>2850639.282122905</v>
+        <v>3307134.130926742</v>
       </c>
     </row>
     <row r="6">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2194.689681551411</v>
+        <v>2553.817547151659</v>
       </c>
       <c r="AB6" t="n">
-        <v>3002.871245174146</v>
+        <v>3494.245834491679</v>
       </c>
       <c r="AC6" t="n">
-        <v>2716.281428090875</v>
+        <v>3160.759916252491</v>
       </c>
       <c r="AD6" t="n">
-        <v>2194689.68155141</v>
+        <v>2553817.547151659</v>
       </c>
       <c r="AE6" t="n">
-        <v>3002871.245174146</v>
+        <v>3494245.834491679</v>
       </c>
       <c r="AF6" t="n">
         <v>2.365064584372579e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>71</v>
+        <v>70.85648148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>2716281.428090875</v>
+        <v>3160759.916252491</v>
       </c>
     </row>
     <row r="7">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2124.542442129538</v>
+        <v>2473.995544449743</v>
       </c>
       <c r="AB7" t="n">
-        <v>2906.892697519176</v>
+        <v>3385.029848896687</v>
       </c>
       <c r="AC7" t="n">
-        <v>2629.46293831747</v>
+        <v>3061.967351037091</v>
       </c>
       <c r="AD7" t="n">
-        <v>2124542.442129538</v>
+        <v>2473995.544449743</v>
       </c>
       <c r="AE7" t="n">
-        <v>2906892.697519176</v>
+        <v>3385029.848896687</v>
       </c>
       <c r="AF7" t="n">
         <v>2.40835797917651e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>70</v>
+        <v>69.58333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2629462.93831747</v>
+        <v>3061967.351037091</v>
       </c>
     </row>
     <row r="8">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2064.251210271394</v>
+        <v>2413.670147172817</v>
       </c>
       <c r="AB8" t="n">
-        <v>2824.399574229436</v>
+        <v>3302.489978973694</v>
       </c>
       <c r="AC8" t="n">
-        <v>2554.842842934678</v>
+        <v>2987.304970454117</v>
       </c>
       <c r="AD8" t="n">
-        <v>2064251.210271393</v>
+        <v>2413670.147172817</v>
       </c>
       <c r="AE8" t="n">
-        <v>2824399.574229436</v>
+        <v>3302489.978973694</v>
       </c>
       <c r="AF8" t="n">
         <v>2.440212650938599e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>69</v>
+        <v>68.68055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>2554842.842934678</v>
+        <v>2987304.970454117</v>
       </c>
     </row>
     <row r="9">
@@ -10439,28 +10439,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2011.914310942737</v>
+        <v>2351.658484564115</v>
       </c>
       <c r="AB9" t="n">
-        <v>2752.789919626928</v>
+        <v>3217.64288643099</v>
       </c>
       <c r="AC9" t="n">
-        <v>2490.067513262651</v>
+        <v>2910.555565340049</v>
       </c>
       <c r="AD9" t="n">
-        <v>2011914.310942737</v>
+        <v>2351658.484564115</v>
       </c>
       <c r="AE9" t="n">
-        <v>2752789.919626928</v>
+        <v>3217642.886430989</v>
       </c>
       <c r="AF9" t="n">
         <v>2.46627556419849e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.9513888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2490067.513262651</v>
+        <v>2910555.565340049</v>
       </c>
     </row>
     <row r="10">
@@ -10545,28 +10545,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1970.131944552558</v>
+        <v>2309.77463294745</v>
       </c>
       <c r="AB10" t="n">
-        <v>2695.621442623973</v>
+        <v>3160.335552863941</v>
       </c>
       <c r="AC10" t="n">
-        <v>2438.355115468397</v>
+        <v>2858.717563257294</v>
       </c>
       <c r="AD10" t="n">
-        <v>1970131.944552558</v>
+        <v>2309774.63294745</v>
       </c>
       <c r="AE10" t="n">
-        <v>2695621.442623973</v>
+        <v>3160335.552863942</v>
       </c>
       <c r="AF10" t="n">
         <v>2.483361251779975e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>68</v>
+        <v>67.47685185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>2438355.115468397</v>
+        <v>2858717.563257294</v>
       </c>
     </row>
     <row r="11">
@@ -10651,28 +10651,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1932.505129218008</v>
+        <v>2262.507219751636</v>
       </c>
       <c r="AB11" t="n">
-        <v>2644.138773905306</v>
+        <v>3095.662192838327</v>
       </c>
       <c r="AC11" t="n">
-        <v>2391.785880395859</v>
+        <v>2800.216537942897</v>
       </c>
       <c r="AD11" t="n">
-        <v>1932505.129218008</v>
+        <v>2262507.219751636</v>
       </c>
       <c r="AE11" t="n">
-        <v>2644138.773905306</v>
+        <v>3095662.192838327</v>
       </c>
       <c r="AF11" t="n">
         <v>2.501026115211679e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>68</v>
+        <v>67.00231481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>2391785.880395859</v>
+        <v>2800216.537942897</v>
       </c>
     </row>
     <row r="12">
@@ -10757,28 +10757,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1898.808117505786</v>
+        <v>2238.518125708383</v>
       </c>
       <c r="AB12" t="n">
-        <v>2598.033035873405</v>
+        <v>3062.839256044211</v>
       </c>
       <c r="AC12" t="n">
-        <v>2350.080409291915</v>
+        <v>2770.52617616913</v>
       </c>
       <c r="AD12" t="n">
-        <v>1898808.117505786</v>
+        <v>2238518.125708383</v>
       </c>
       <c r="AE12" t="n">
-        <v>2598033.035873406</v>
+        <v>3062839.256044211</v>
       </c>
       <c r="AF12" t="n">
         <v>2.509134577114756e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.79398148148148</v>
       </c>
       <c r="AH12" t="n">
-        <v>2350080.409291915</v>
+        <v>2770526.17616913</v>
       </c>
     </row>
     <row r="13">
@@ -10863,28 +10863,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1896.508273229904</v>
+        <v>2236.2182814325</v>
       </c>
       <c r="AB13" t="n">
-        <v>2594.886287473175</v>
+        <v>3059.692507643979</v>
       </c>
       <c r="AC13" t="n">
-        <v>2347.233982142512</v>
+        <v>2767.679749019727</v>
       </c>
       <c r="AD13" t="n">
-        <v>1896508.273229904</v>
+        <v>2236218.2814325</v>
       </c>
       <c r="AE13" t="n">
-        <v>2594886.287473175</v>
+        <v>3059692.507643979</v>
       </c>
       <c r="AF13" t="n">
         <v>2.511740868440745e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>67</v>
+        <v>66.72453703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>2347233.982142512</v>
+        <v>2767679.749019727</v>
       </c>
     </row>
     <row r="14">
@@ -10969,28 +10969,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1902.011208081088</v>
+        <v>2241.721216283686</v>
       </c>
       <c r="AB14" t="n">
-        <v>2602.415645708918</v>
+        <v>3067.221865879723</v>
       </c>
       <c r="AC14" t="n">
-        <v>2354.044748995757</v>
+        <v>2774.490515872972</v>
       </c>
       <c r="AD14" t="n">
-        <v>1902011.208081088</v>
+        <v>2241721.216283686</v>
       </c>
       <c r="AE14" t="n">
-        <v>2602415.645708918</v>
+        <v>3067221.865879723</v>
       </c>
       <c r="AF14" t="n">
         <v>2.51159607447819e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>67</v>
+        <v>66.72453703703704</v>
       </c>
       <c r="AH14" t="n">
-        <v>2354044.748995757</v>
+        <v>2774490.515872972</v>
       </c>
     </row>
   </sheetData>
@@ -11266,28 +11266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1470.52524007186</v>
+        <v>1819.557121806696</v>
       </c>
       <c r="AB2" t="n">
-        <v>2012.037508461263</v>
+        <v>2489.598327250738</v>
       </c>
       <c r="AC2" t="n">
-        <v>1820.011472566099</v>
+        <v>2251.994557071124</v>
       </c>
       <c r="AD2" t="n">
-        <v>1470525.24007186</v>
+        <v>1819557.121806696</v>
       </c>
       <c r="AE2" t="n">
-        <v>2012037.508461263</v>
+        <v>2489598.327250738</v>
       </c>
       <c r="AF2" t="n">
         <v>4.089223553238075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.46064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1820011.472566099</v>
+        <v>2251994.557071124</v>
       </c>
     </row>
     <row r="3">
@@ -11372,28 +11372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1368.826741884921</v>
+        <v>1699.615237538766</v>
       </c>
       <c r="AB3" t="n">
-        <v>1872.889136620803</v>
+        <v>2325.488549732875</v>
       </c>
       <c r="AC3" t="n">
-        <v>1694.143226038126</v>
+        <v>2103.547186390047</v>
       </c>
       <c r="AD3" t="n">
-        <v>1368826.741884921</v>
+        <v>1699615.237538766</v>
       </c>
       <c r="AE3" t="n">
-        <v>1872889.136620803</v>
+        <v>2325488.549732875</v>
       </c>
       <c r="AF3" t="n">
         <v>4.257412500397597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>71</v>
+        <v>70.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1694143.226038126</v>
+        <v>2103547.186390047</v>
       </c>
     </row>
   </sheetData>
@@ -11669,28 +11669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3343.23770005766</v>
+        <v>3832.078516956859</v>
       </c>
       <c r="AB2" t="n">
-        <v>4574.365314456928</v>
+        <v>5243.218886273231</v>
       </c>
       <c r="AC2" t="n">
-        <v>4137.794309007028</v>
+        <v>4742.81343467104</v>
       </c>
       <c r="AD2" t="n">
-        <v>3343237.70005766</v>
+        <v>3832078.516956859</v>
       </c>
       <c r="AE2" t="n">
-        <v>4574365.314456928</v>
+        <v>5243218.886273231</v>
       </c>
       <c r="AF2" t="n">
         <v>1.884464306540353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>99.08564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>4137794.309007027</v>
+        <v>4742813.434671041</v>
       </c>
     </row>
     <row r="3">
@@ -11775,28 +11775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2360.876207092932</v>
+        <v>2744.278307791388</v>
       </c>
       <c r="AB3" t="n">
-        <v>3230.254981052134</v>
+        <v>3754.842649734709</v>
       </c>
       <c r="AC3" t="n">
-        <v>2921.963979351737</v>
+        <v>3396.485737198643</v>
       </c>
       <c r="AD3" t="n">
-        <v>2360876.207092931</v>
+        <v>2744278.307791388</v>
       </c>
       <c r="AE3" t="n">
-        <v>3230254.981052134</v>
+        <v>3754842.649734709</v>
       </c>
       <c r="AF3" t="n">
         <v>2.379136187007196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>79</v>
+        <v>78.49537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>2921963.979351737</v>
+        <v>3396485.737198643</v>
       </c>
     </row>
     <row r="4">
@@ -11881,28 +11881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2100.299567284805</v>
+        <v>2464.557934805001</v>
       </c>
       <c r="AB4" t="n">
-        <v>2873.722526636457</v>
+        <v>3372.116895022798</v>
       </c>
       <c r="AC4" t="n">
-        <v>2599.458481989172</v>
+        <v>3050.286791357482</v>
       </c>
       <c r="AD4" t="n">
-        <v>2100299.567284805</v>
+        <v>2464557.934805002</v>
       </c>
       <c r="AE4" t="n">
-        <v>2873722.526636457</v>
+        <v>3372116.895022798</v>
       </c>
       <c r="AF4" t="n">
         <v>2.560483608287277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.92824074074075</v>
       </c>
       <c r="AH4" t="n">
-        <v>2599458.481989171</v>
+        <v>3050286.791357482</v>
       </c>
     </row>
     <row r="5">
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1973.592800317964</v>
+        <v>2318.64112588205</v>
       </c>
       <c r="AB5" t="n">
-        <v>2700.356738164383</v>
+        <v>3172.467079659124</v>
       </c>
       <c r="AC5" t="n">
-        <v>2442.638481048459</v>
+        <v>2869.691274161849</v>
       </c>
       <c r="AD5" t="n">
-        <v>1973592.800317964</v>
+        <v>2318641.12588205</v>
       </c>
       <c r="AE5" t="n">
-        <v>2700356.738164383</v>
+        <v>3172467.079659124</v>
       </c>
       <c r="AF5" t="n">
         <v>2.657772304934866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.25462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>2442638.481048459</v>
+        <v>2869691.274161849</v>
       </c>
     </row>
     <row r="6">
@@ -12093,28 +12093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1882.048792162018</v>
+        <v>2227.130272115029</v>
       </c>
       <c r="AB6" t="n">
-        <v>2575.102187568811</v>
+        <v>3047.257892361139</v>
       </c>
       <c r="AC6" t="n">
-        <v>2329.338048965863</v>
+        <v>2756.43187596739</v>
       </c>
       <c r="AD6" t="n">
-        <v>1882048.792162018</v>
+        <v>2227130.272115028</v>
       </c>
       <c r="AE6" t="n">
-        <v>2575102.187568811</v>
+        <v>3047257.892361139</v>
       </c>
       <c r="AF6" t="n">
         <v>2.715048403292899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.77314814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>2329338.048965863</v>
+        <v>2756431.87596739</v>
       </c>
     </row>
     <row r="7">
@@ -12199,28 +12199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1813.767011026016</v>
+        <v>2149.294212614211</v>
       </c>
       <c r="AB7" t="n">
-        <v>2481.676042238952</v>
+        <v>2940.759161867352</v>
       </c>
       <c r="AC7" t="n">
-        <v>2244.828363821866</v>
+        <v>2660.097234840138</v>
       </c>
       <c r="AD7" t="n">
-        <v>1813767.011026016</v>
+        <v>2149294.212614211</v>
       </c>
       <c r="AE7" t="n">
-        <v>2481676.042238952</v>
+        <v>2940759.161867352</v>
       </c>
       <c r="AF7" t="n">
         <v>2.757481118414484e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.7199074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>2244828.363821866</v>
+        <v>2660097.234840138</v>
       </c>
     </row>
     <row r="8">
@@ -12305,28 +12305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1766.11649704521</v>
+        <v>2092.022100460889</v>
       </c>
       <c r="AB8" t="n">
-        <v>2416.478506818102</v>
+        <v>2862.396931351911</v>
       </c>
       <c r="AC8" t="n">
-        <v>2185.853189676267</v>
+        <v>2589.213785623009</v>
       </c>
       <c r="AD8" t="n">
-        <v>1766116.49704521</v>
+        <v>2092022.100460889</v>
       </c>
       <c r="AE8" t="n">
-        <v>2416478.506818102</v>
+        <v>2862396.931351911</v>
       </c>
       <c r="AF8" t="n">
         <v>2.782327651223321e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.11805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>2185853.189676267</v>
+        <v>2589213.785623009</v>
       </c>
     </row>
     <row r="9">
@@ -12411,28 +12411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1744.329610750432</v>
+        <v>2079.822646919846</v>
       </c>
       <c r="AB9" t="n">
-        <v>2386.668727819998</v>
+        <v>2845.705100815151</v>
       </c>
       <c r="AC9" t="n">
-        <v>2158.888414147455</v>
+        <v>2574.114999965546</v>
       </c>
       <c r="AD9" t="n">
-        <v>1744329.610750432</v>
+        <v>2079822.646919846</v>
       </c>
       <c r="AE9" t="n">
-        <v>2386668.727819998</v>
+        <v>2845705.100815151</v>
       </c>
       <c r="AF9" t="n">
         <v>2.78991068396368e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.93287037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>2158888.414147455</v>
+        <v>2574114.999965546</v>
       </c>
     </row>
   </sheetData>
@@ -12708,28 +12708,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3836.294264046907</v>
+        <v>4366.967576210432</v>
       </c>
       <c r="AB2" t="n">
-        <v>5248.987057427471</v>
+        <v>5975.077694783868</v>
       </c>
       <c r="AC2" t="n">
-        <v>4748.031099665999</v>
+        <v>5404.824665667684</v>
       </c>
       <c r="AD2" t="n">
-        <v>3836294.264046907</v>
+        <v>4366967.576210432</v>
       </c>
       <c r="AE2" t="n">
-        <v>5248987.057427471</v>
+        <v>5975077.694783867</v>
       </c>
       <c r="AF2" t="n">
         <v>1.667595501216516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>106</v>
+        <v>105.6944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>4748031.099665999</v>
+        <v>5404824.665667684</v>
       </c>
     </row>
     <row r="3">
@@ -12814,28 +12814,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2603.943098331816</v>
+        <v>2999.536320875959</v>
       </c>
       <c r="AB3" t="n">
-        <v>3562.829824999619</v>
+        <v>4104.097924425801</v>
       </c>
       <c r="AC3" t="n">
-        <v>3222.798346964586</v>
+        <v>3712.408578656062</v>
       </c>
       <c r="AD3" t="n">
-        <v>2603943.098331816</v>
+        <v>2999536.320875959</v>
       </c>
       <c r="AE3" t="n">
-        <v>3562829.824999619</v>
+        <v>4104097.924425801</v>
       </c>
       <c r="AF3" t="n">
         <v>2.17259519820592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82</v>
+        <v>81.13425925925925</v>
       </c>
       <c r="AH3" t="n">
-        <v>3222798.346964586</v>
+        <v>3712408.578656062</v>
       </c>
     </row>
     <row r="4">
@@ -12920,28 +12920,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2290.119184621962</v>
+        <v>2666.409215269388</v>
       </c>
       <c r="AB4" t="n">
-        <v>3133.442101327827</v>
+        <v>3648.298722004195</v>
       </c>
       <c r="AC4" t="n">
-        <v>2834.39078499059</v>
+        <v>3300.110212395392</v>
       </c>
       <c r="AD4" t="n">
-        <v>2290119.184621962</v>
+        <v>2666409.215269388</v>
       </c>
       <c r="AE4" t="n">
-        <v>3133442.101327827</v>
+        <v>3648298.722004195</v>
       </c>
       <c r="AF4" t="n">
         <v>2.362655397796624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>75</v>
+        <v>74.60648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>2834390.784990591</v>
+        <v>3300110.212395392</v>
       </c>
     </row>
     <row r="5">
@@ -13026,28 +13026,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2141.399264989776</v>
+        <v>2498.421280189126</v>
       </c>
       <c r="AB5" t="n">
-        <v>2929.956946227094</v>
+        <v>3418.450218122722</v>
       </c>
       <c r="AC5" t="n">
-        <v>2650.325967499581</v>
+        <v>3092.198127129974</v>
       </c>
       <c r="AD5" t="n">
-        <v>2141399.264989777</v>
+        <v>2498421.280189126</v>
       </c>
       <c r="AE5" t="n">
-        <v>2929956.946227094</v>
+        <v>3418450.218122722</v>
       </c>
       <c r="AF5" t="n">
         <v>2.46225425238983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>72</v>
+        <v>71.58564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>2650325.967499581</v>
+        <v>3092198.127129974</v>
       </c>
     </row>
     <row r="6">
@@ -13132,28 +13132,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2039.877046123073</v>
+        <v>2387.247970888992</v>
       </c>
       <c r="AB6" t="n">
-        <v>2791.049767529474</v>
+        <v>3266.337991718013</v>
       </c>
       <c r="AC6" t="n">
-        <v>2524.675894979412</v>
+        <v>2954.603278122487</v>
       </c>
       <c r="AD6" t="n">
-        <v>2039877.046123073</v>
+        <v>2387247.970888992</v>
       </c>
       <c r="AE6" t="n">
-        <v>2791049.767529474</v>
+        <v>3266337.991718013</v>
       </c>
       <c r="AF6" t="n">
         <v>2.527739737825729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.73379629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>2524675.894979412</v>
+        <v>2954603.278122487</v>
       </c>
     </row>
     <row r="7">
@@ -13238,28 +13238,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1972.460801499032</v>
+        <v>2319.797560846169</v>
       </c>
       <c r="AB7" t="n">
-        <v>2698.807887440055</v>
+        <v>3174.049364995342</v>
       </c>
       <c r="AC7" t="n">
-        <v>2441.237450463436</v>
+        <v>2871.122548406329</v>
       </c>
       <c r="AD7" t="n">
-        <v>1972460.801499031</v>
+        <v>2319797.560846169</v>
       </c>
       <c r="AE7" t="n">
-        <v>2698807.887440055</v>
+        <v>3174049.364995342</v>
       </c>
       <c r="AF7" t="n">
         <v>2.567183320913864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>69</v>
+        <v>68.6574074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>2441237.450463436</v>
+        <v>2871122.548406329</v>
       </c>
     </row>
     <row r="8">
@@ -13344,28 +13344,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1912.135618591236</v>
+        <v>2249.855452923725</v>
       </c>
       <c r="AB8" t="n">
-        <v>2616.26831082637</v>
+        <v>3078.351487307818</v>
       </c>
       <c r="AC8" t="n">
-        <v>2366.575335196736</v>
+        <v>2784.557941852492</v>
       </c>
       <c r="AD8" t="n">
-        <v>1912135.618591236</v>
+        <v>2249855.452923725</v>
       </c>
       <c r="AE8" t="n">
-        <v>2616268.31082637</v>
+        <v>3078351.487307819</v>
       </c>
       <c r="AF8" t="n">
         <v>2.597946269886078e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.84722222222221</v>
       </c>
       <c r="AH8" t="n">
-        <v>2366575.335196736</v>
+        <v>2784557.941852492</v>
       </c>
     </row>
     <row r="9">
@@ -13450,28 +13450,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1865.817777373633</v>
+        <v>2193.853366883769</v>
       </c>
       <c r="AB9" t="n">
-        <v>2552.894197073507</v>
+        <v>3001.726962550279</v>
       </c>
       <c r="AC9" t="n">
-        <v>2309.24955791432</v>
+        <v>2715.246354194619</v>
       </c>
       <c r="AD9" t="n">
-        <v>1865817.777373633</v>
+        <v>2193853.366883769</v>
       </c>
       <c r="AE9" t="n">
-        <v>2552894.197073507</v>
+        <v>3001726.962550279</v>
       </c>
       <c r="AF9" t="n">
         <v>2.622465253967891e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.21064814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>2309249.557914319</v>
+        <v>2715246.354194619</v>
       </c>
     </row>
     <row r="10">
@@ -13556,28 +13556,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1825.303564814081</v>
+        <v>2162.989233727787</v>
       </c>
       <c r="AB10" t="n">
-        <v>2497.460864088614</v>
+        <v>2959.497293936636</v>
       </c>
       <c r="AC10" t="n">
-        <v>2259.106704428334</v>
+        <v>2677.047025883863</v>
       </c>
       <c r="AD10" t="n">
-        <v>1825303.564814081</v>
+        <v>2162989.233727787</v>
       </c>
       <c r="AE10" t="n">
-        <v>2497460.864088614</v>
+        <v>2959497.293936636</v>
       </c>
       <c r="AF10" t="n">
         <v>2.636323810188047e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.86342592592594</v>
       </c>
       <c r="AH10" t="n">
-        <v>2259106.704428334</v>
+        <v>2677047.025883863</v>
       </c>
     </row>
     <row r="11">
@@ -13662,28 +13662,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1821.079744589431</v>
+        <v>2158.765413503137</v>
       </c>
       <c r="AB11" t="n">
-        <v>2491.681646915452</v>
+        <v>2953.718076763474</v>
       </c>
       <c r="AC11" t="n">
-        <v>2253.879047630996</v>
+        <v>2671.819369086525</v>
       </c>
       <c r="AD11" t="n">
-        <v>1821079.744589431</v>
+        <v>2158765.413503137</v>
       </c>
       <c r="AE11" t="n">
-        <v>2491681.646915452</v>
+        <v>2953718.076763474</v>
       </c>
       <c r="AF11" t="n">
         <v>2.639217354893354e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>67</v>
+        <v>66.7824074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>2253879.047630996</v>
+        <v>2671819.369086524</v>
       </c>
     </row>
     <row r="12">
@@ -13768,28 +13768,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1826.212694660225</v>
+        <v>2163.898363573931</v>
       </c>
       <c r="AB12" t="n">
-        <v>2498.704775652087</v>
+        <v>2960.741205500109</v>
       </c>
       <c r="AC12" t="n">
-        <v>2260.23189881803</v>
+        <v>2678.172220273558</v>
       </c>
       <c r="AD12" t="n">
-        <v>1826212.694660225</v>
+        <v>2163898.363573931</v>
       </c>
       <c r="AE12" t="n">
-        <v>2498704.775652087</v>
+        <v>2960741.205500109</v>
       </c>
       <c r="AF12" t="n">
         <v>2.639217354893354e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.7824074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>2260231.89881803</v>
+        <v>2678172.220273558</v>
       </c>
     </row>
   </sheetData>
@@ -14065,28 +14065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5029.182701854234</v>
+        <v>5644.070478296915</v>
       </c>
       <c r="AB2" t="n">
-        <v>6881.149644559228</v>
+        <v>7722.46622722233</v>
       </c>
       <c r="AC2" t="n">
-        <v>6224.42238023642</v>
+        <v>6985.444889045361</v>
       </c>
       <c r="AD2" t="n">
-        <v>5029182.701854234</v>
+        <v>5644070.478296915</v>
       </c>
       <c r="AE2" t="n">
-        <v>6881149.644559229</v>
+        <v>7722466.22722233</v>
       </c>
       <c r="AF2" t="n">
         <v>1.326268332778905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>121</v>
+        <v>120.8101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>6224422.380236421</v>
+        <v>6985444.889045361</v>
       </c>
     </row>
     <row r="3">
@@ -14171,28 +14171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3106.966551836486</v>
+        <v>3546.191629534847</v>
       </c>
       <c r="AB3" t="n">
-        <v>4251.088705913297</v>
+        <v>4852.055834463082</v>
       </c>
       <c r="AC3" t="n">
-        <v>3845.370766261243</v>
+        <v>4388.982435524876</v>
       </c>
       <c r="AD3" t="n">
-        <v>3106966.551836486</v>
+        <v>3546191.629534847</v>
       </c>
       <c r="AE3" t="n">
-        <v>4251088.705913297</v>
+        <v>4852055.834463081</v>
       </c>
       <c r="AF3" t="n">
         <v>1.844869707997044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>87</v>
+        <v>86.85185185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>3845370.766261243</v>
+        <v>4388982.435524875</v>
       </c>
     </row>
     <row r="4">
@@ -14277,28 +14277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2678.793981121604</v>
+        <v>3069.171729547187</v>
       </c>
       <c r="AB4" t="n">
-        <v>3665.244105020507</v>
+        <v>4199.376162667193</v>
       </c>
       <c r="AC4" t="n">
-        <v>3315.438351839621</v>
+        <v>3798.593595563539</v>
       </c>
       <c r="AD4" t="n">
-        <v>2678793.981121604</v>
+        <v>3069171.729547187</v>
       </c>
       <c r="AE4" t="n">
-        <v>3665244.105020507</v>
+        <v>4199376.162667193</v>
       </c>
       <c r="AF4" t="n">
         <v>2.046994109443516e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>78.27546296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>3315438.351839621</v>
+        <v>3798593.595563539</v>
       </c>
     </row>
     <row r="5">
@@ -14383,28 +14383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2474.901027171924</v>
+        <v>2845.753105643963</v>
       </c>
       <c r="AB5" t="n">
-        <v>3386.268770304253</v>
+        <v>3893.684944908739</v>
       </c>
       <c r="AC5" t="n">
-        <v>3063.088031524357</v>
+        <v>3522.077118587644</v>
       </c>
       <c r="AD5" t="n">
-        <v>2474901.027171924</v>
+        <v>2845753.105643963</v>
       </c>
       <c r="AE5" t="n">
-        <v>3386268.770304253</v>
+        <v>3893684.944908739</v>
       </c>
       <c r="AF5" t="n">
         <v>2.158162530239075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>74.24768518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>3063088.031524356</v>
+        <v>3522077.118587644</v>
       </c>
     </row>
     <row r="6">
@@ -14489,28 +14489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2362.18824933756</v>
+        <v>2723.277492832828</v>
       </c>
       <c r="AB6" t="n">
-        <v>3232.050175134454</v>
+        <v>3726.108408217839</v>
       </c>
       <c r="AC6" t="n">
-        <v>2923.587842630411</v>
+        <v>3370.493851363384</v>
       </c>
       <c r="AD6" t="n">
-        <v>2362188.24933756</v>
+        <v>2723277.492832828</v>
       </c>
       <c r="AE6" t="n">
-        <v>3232050.175134453</v>
+        <v>3726108.408217839</v>
       </c>
       <c r="AF6" t="n">
         <v>2.223783740023752e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>73</v>
+        <v>72.06018518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>2923587.842630411</v>
+        <v>3370493.851363384</v>
       </c>
     </row>
     <row r="7">
@@ -14595,28 +14595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2275.129200891186</v>
+        <v>2626.557094636169</v>
       </c>
       <c r="AB7" t="n">
-        <v>3112.932144275969</v>
+        <v>3593.771292402343</v>
       </c>
       <c r="AC7" t="n">
-        <v>2815.838269453858</v>
+        <v>3250.786804145015</v>
       </c>
       <c r="AD7" t="n">
-        <v>2275129.200891186</v>
+        <v>2626557.094636169</v>
       </c>
       <c r="AE7" t="n">
-        <v>3112932.144275969</v>
+        <v>3593771.292402343</v>
       </c>
       <c r="AF7" t="n">
         <v>2.269469392405489e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.60185185185186</v>
       </c>
       <c r="AH7" t="n">
-        <v>2815838.269453858</v>
+        <v>3250786.804145015</v>
       </c>
     </row>
     <row r="8">
@@ -14701,28 +14701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2209.920310924017</v>
+        <v>2561.212554023733</v>
       </c>
       <c r="AB8" t="n">
-        <v>3023.710464209692</v>
+        <v>3504.364009138728</v>
       </c>
       <c r="AC8" t="n">
-        <v>2735.131781309695</v>
+        <v>3169.912426512173</v>
       </c>
       <c r="AD8" t="n">
-        <v>2209920.310924016</v>
+        <v>2561212.554023732</v>
       </c>
       <c r="AE8" t="n">
-        <v>3023710.464209692</v>
+        <v>3504364.009138728</v>
       </c>
       <c r="AF8" t="n">
         <v>2.305879472940024e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.49074074074075</v>
       </c>
       <c r="AH8" t="n">
-        <v>2735131.781309695</v>
+        <v>3169912.426512173</v>
       </c>
     </row>
     <row r="9">
@@ -14807,28 +14807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2157.669575138665</v>
+        <v>2509.029138046089</v>
       </c>
       <c r="AB9" t="n">
-        <v>2952.218702368227</v>
+        <v>3432.964357228278</v>
       </c>
       <c r="AC9" t="n">
-        <v>2670.463092879176</v>
+        <v>3105.327057170018</v>
       </c>
       <c r="AD9" t="n">
-        <v>2157669.575138665</v>
+        <v>2509029.138046089</v>
       </c>
       <c r="AE9" t="n">
-        <v>2952218.702368227</v>
+        <v>3432964.357228278</v>
       </c>
       <c r="AF9" t="n">
         <v>2.330245154210284e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>69</v>
+        <v>68.76157407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>2670463.092879176</v>
+        <v>3105327.057170018</v>
       </c>
     </row>
     <row r="10">
@@ -14913,28 +14913,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2117.275796123295</v>
+        <v>2458.839369665023</v>
       </c>
       <c r="AB10" t="n">
-        <v>2896.950151871638</v>
+        <v>3364.292501912992</v>
       </c>
       <c r="AC10" t="n">
-        <v>2620.469295272083</v>
+        <v>3043.209147344471</v>
       </c>
       <c r="AD10" t="n">
-        <v>2117275.796123295</v>
+        <v>2458839.369665023</v>
       </c>
       <c r="AE10" t="n">
-        <v>2896950.151871638</v>
+        <v>3364292.501912992</v>
       </c>
       <c r="AF10" t="n">
         <v>2.351703566692615e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>69</v>
+        <v>68.13657407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>2620469.295272083</v>
+        <v>3043209.147344471</v>
       </c>
     </row>
     <row r="11">
@@ -15019,28 +15019,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2067.565142817902</v>
+        <v>2409.196036167335</v>
       </c>
       <c r="AB11" t="n">
-        <v>2828.933842939955</v>
+        <v>3296.368302912146</v>
       </c>
       <c r="AC11" t="n">
-        <v>2558.944367403351</v>
+        <v>2981.767538564057</v>
       </c>
       <c r="AD11" t="n">
-        <v>2067565.142817902</v>
+        <v>2409196.036167335</v>
       </c>
       <c r="AE11" t="n">
-        <v>2828933.842939955</v>
+        <v>3296368.302912146</v>
       </c>
       <c r="AF11" t="n">
         <v>2.367347441599088e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>68</v>
+        <v>67.68518518518518</v>
       </c>
       <c r="AH11" t="n">
-        <v>2558944.367403351</v>
+        <v>2981767.538564057</v>
       </c>
     </row>
     <row r="12">
@@ -15125,28 +15125,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2039.44718769388</v>
+        <v>2371.282091677618</v>
       </c>
       <c r="AB12" t="n">
-        <v>2790.461616262637</v>
+        <v>3244.492771416131</v>
       </c>
       <c r="AC12" t="n">
-        <v>2524.143876044006</v>
+        <v>2934.842934986258</v>
       </c>
       <c r="AD12" t="n">
-        <v>2039447.18769388</v>
+        <v>2371282.091677618</v>
       </c>
       <c r="AE12" t="n">
-        <v>2790461.616262637</v>
+        <v>3244492.771416131</v>
       </c>
       <c r="AF12" t="n">
         <v>2.381191578684464e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>68</v>
+        <v>67.29166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2524143.876044007</v>
+        <v>2934842.934986258</v>
       </c>
     </row>
     <row r="13">
@@ -15231,28 +15231,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1994.985400786403</v>
+        <v>2336.582128717056</v>
       </c>
       <c r="AB13" t="n">
-        <v>2729.627037900226</v>
+        <v>3197.014751239164</v>
       </c>
       <c r="AC13" t="n">
-        <v>2469.115264458637</v>
+        <v>2891.896150419162</v>
       </c>
       <c r="AD13" t="n">
-        <v>1994985.400786404</v>
+        <v>2336582.128717056</v>
       </c>
       <c r="AE13" t="n">
-        <v>2729627.037900226</v>
+        <v>3197014.751239164</v>
       </c>
       <c r="AF13" t="n">
         <v>2.394620391657277e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>67</v>
+        <v>66.90972222222223</v>
       </c>
       <c r="AH13" t="n">
-        <v>2469115.264458637</v>
+        <v>2891896.150419162</v>
       </c>
     </row>
     <row r="14">
@@ -15337,28 +15337,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1970.717363657232</v>
+        <v>2312.314091587884</v>
       </c>
       <c r="AB14" t="n">
-        <v>2696.422438869857</v>
+        <v>3163.810152208792</v>
       </c>
       <c r="AC14" t="n">
-        <v>2439.079665756779</v>
+        <v>2861.860551717303</v>
       </c>
       <c r="AD14" t="n">
-        <v>1970717.363657232</v>
+        <v>2312314.091587884</v>
       </c>
       <c r="AE14" t="n">
-        <v>2696422.438869857</v>
+        <v>3163810.152208792</v>
       </c>
       <c r="AF14" t="n">
         <v>2.402234667054233e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>67</v>
+        <v>66.7013888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>2439079.665756779</v>
+        <v>2861860.551717303</v>
       </c>
     </row>
     <row r="15">
@@ -15443,28 +15443,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1965.731504230194</v>
+        <v>2297.633728021636</v>
       </c>
       <c r="AB15" t="n">
-        <v>2689.600566041188</v>
+        <v>3143.723831125519</v>
       </c>
       <c r="AC15" t="n">
-        <v>2432.90886289632</v>
+        <v>2843.691240926889</v>
       </c>
       <c r="AD15" t="n">
-        <v>1965731.504230194</v>
+        <v>2297633.728021636</v>
       </c>
       <c r="AE15" t="n">
-        <v>2689600.566041188</v>
+        <v>3143723.831125519</v>
       </c>
       <c r="AF15" t="n">
         <v>2.403895963504478e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>67</v>
+        <v>66.6550925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>2432908.86289632</v>
+        <v>2843691.240926889</v>
       </c>
     </row>
     <row r="16">
@@ -15549,28 +15549,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1971.654905902038</v>
+        <v>2303.55712969348</v>
       </c>
       <c r="AB16" t="n">
-        <v>2697.705225530645</v>
+        <v>3151.828490614976</v>
       </c>
       <c r="AC16" t="n">
-        <v>2440.240025059064</v>
+        <v>2851.022403089632</v>
       </c>
       <c r="AD16" t="n">
-        <v>1971654.905902038</v>
+        <v>2303557.12969348</v>
       </c>
       <c r="AE16" t="n">
-        <v>2697705.225530645</v>
+        <v>3151828.490614976</v>
       </c>
       <c r="AF16" t="n">
         <v>2.403757522133624e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>67</v>
+        <v>66.6550925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>2440240.025059064</v>
+        <v>2851022.403089632</v>
       </c>
     </row>
   </sheetData>
@@ -15846,28 +15846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2879.373182732801</v>
+        <v>3336.21830195835</v>
       </c>
       <c r="AB2" t="n">
-        <v>3939.68541759481</v>
+        <v>4564.761064303464</v>
       </c>
       <c r="AC2" t="n">
-        <v>3563.687370722625</v>
+        <v>4129.10667500856</v>
       </c>
       <c r="AD2" t="n">
-        <v>2879373.182732801</v>
+        <v>3336218.30195835</v>
       </c>
       <c r="AE2" t="n">
-        <v>3939685.41759481</v>
+        <v>4564761.064303464</v>
       </c>
       <c r="AF2" t="n">
         <v>2.150096825426584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.9050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>3563687.370722624</v>
+        <v>4129106.675008561</v>
       </c>
     </row>
     <row r="3">
@@ -15952,28 +15952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2123.783515981865</v>
+        <v>2504.436533874987</v>
       </c>
       <c r="AB3" t="n">
-        <v>2905.854301282471</v>
+        <v>3426.68055358998</v>
       </c>
       <c r="AC3" t="n">
-        <v>2628.523645160198</v>
+        <v>3099.642970931585</v>
       </c>
       <c r="AD3" t="n">
-        <v>2123783.515981865</v>
+        <v>2504436.533874987</v>
       </c>
       <c r="AE3" t="n">
-        <v>2905854.301282471</v>
+        <v>3426680.55358998</v>
       </c>
       <c r="AF3" t="n">
         <v>2.629372703112379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>76</v>
+        <v>75.97222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>2628523.645160198</v>
+        <v>3099642.970931585</v>
       </c>
     </row>
     <row r="4">
@@ -16058,28 +16058,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1915.60770736194</v>
+        <v>2258.216933746876</v>
       </c>
       <c r="AB4" t="n">
-        <v>2621.018975860192</v>
+        <v>3089.792034252554</v>
       </c>
       <c r="AC4" t="n">
-        <v>2370.872603427332</v>
+        <v>2794.90661905373</v>
       </c>
       <c r="AD4" t="n">
-        <v>1915607.70736194</v>
+        <v>2258216.933746876</v>
       </c>
       <c r="AE4" t="n">
-        <v>2621018.975860192</v>
+        <v>3089792.034252554</v>
       </c>
       <c r="AF4" t="n">
         <v>2.804203982945187e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>71.23842592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>2370872.603427332</v>
+        <v>2794906.61905373</v>
       </c>
     </row>
     <row r="5">
@@ -16164,28 +16164,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1803.378722714346</v>
+        <v>2136.468207110073</v>
       </c>
       <c r="AB5" t="n">
-        <v>2467.462327871991</v>
+        <v>2923.210055293163</v>
       </c>
       <c r="AC5" t="n">
-        <v>2231.971186405015</v>
+        <v>2644.222990367064</v>
       </c>
       <c r="AD5" t="n">
-        <v>1803378.722714346</v>
+        <v>2136468.207110073</v>
       </c>
       <c r="AE5" t="n">
-        <v>2467462.32787199</v>
+        <v>2923210.055293163</v>
       </c>
       <c r="AF5" t="n">
         <v>2.8932592054464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.03935185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>2231971.186405015</v>
+        <v>2644222.990367064</v>
       </c>
     </row>
     <row r="6">
@@ -16270,28 +16270,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1709.795737595488</v>
+        <v>2042.918376380139</v>
       </c>
       <c r="AB6" t="n">
-        <v>2339.417959042446</v>
+        <v>2795.211049761213</v>
       </c>
       <c r="AC6" t="n">
-        <v>2116.147192425161</v>
+        <v>2528.44003027535</v>
       </c>
       <c r="AD6" t="n">
-        <v>1709795.737595488</v>
+        <v>2042918.376380139</v>
       </c>
       <c r="AE6" t="n">
-        <v>2339417.959042446</v>
+        <v>2795211.049761212</v>
       </c>
       <c r="AF6" t="n">
         <v>2.951248652656493e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.68518518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>2116147.192425161</v>
+        <v>2528440.03027535</v>
       </c>
     </row>
     <row r="7">
@@ -16376,28 +16376,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1676.599163141055</v>
+        <v>2000.168905547575</v>
       </c>
       <c r="AB7" t="n">
-        <v>2293.996941344386</v>
+        <v>2736.719337794552</v>
       </c>
       <c r="AC7" t="n">
-        <v>2075.061092907406</v>
+        <v>2475.530685205154</v>
       </c>
       <c r="AD7" t="n">
-        <v>1676599.163141055</v>
+        <v>2000168.905547575</v>
       </c>
       <c r="AE7" t="n">
-        <v>2293996.941344386</v>
+        <v>2736719.337794552</v>
       </c>
       <c r="AF7" t="n">
         <v>2.975065747046353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.14120370370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>2075061.092907406</v>
+        <v>2475530.685205154</v>
       </c>
     </row>
     <row r="8">
@@ -16482,28 +16482,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1680.84668709422</v>
+        <v>2004.41642950074</v>
       </c>
       <c r="AB8" t="n">
-        <v>2299.808591004638</v>
+        <v>2742.530987454804</v>
       </c>
       <c r="AC8" t="n">
-        <v>2080.318086880785</v>
+        <v>2480.787679178533</v>
       </c>
       <c r="AD8" t="n">
-        <v>1680846.687094219</v>
+        <v>2004416.42950074</v>
       </c>
       <c r="AE8" t="n">
-        <v>2299808.591004638</v>
+        <v>2742530.987454804</v>
       </c>
       <c r="AF8" t="n">
         <v>2.974893159405846e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.14120370370371</v>
       </c>
       <c r="AH8" t="n">
-        <v>2080318.086880785</v>
+        <v>2480787.679178533</v>
       </c>
     </row>
   </sheetData>
@@ -16779,28 +16779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2268.649296002196</v>
+        <v>2672.753780208743</v>
       </c>
       <c r="AB2" t="n">
-        <v>3104.066052533624</v>
+        <v>3656.979635656672</v>
       </c>
       <c r="AC2" t="n">
-        <v>2807.818345063764</v>
+        <v>3307.962631832615</v>
       </c>
       <c r="AD2" t="n">
-        <v>2268649.296002196</v>
+        <v>2672753.780208743</v>
       </c>
       <c r="AE2" t="n">
-        <v>3104066.052533624</v>
+        <v>3656979.635656672</v>
       </c>
       <c r="AF2" t="n">
         <v>2.690113917810876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2807818.345063764</v>
+        <v>3307962.631832615</v>
       </c>
     </row>
     <row r="3">
@@ -16885,28 +16885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1775.250915435666</v>
+        <v>2122.949799430332</v>
       </c>
       <c r="AB3" t="n">
-        <v>2428.976621042022</v>
+        <v>2904.713573515685</v>
       </c>
       <c r="AC3" t="n">
-        <v>2197.15850141987</v>
+        <v>2627.491786850454</v>
       </c>
       <c r="AD3" t="n">
-        <v>1775250.915435666</v>
+        <v>2122949.799430332</v>
       </c>
       <c r="AE3" t="n">
-        <v>2428976.621042022</v>
+        <v>2904713.573515685</v>
       </c>
       <c r="AF3" t="n">
         <v>3.14186780158682e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>73</v>
+        <v>72.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2197158.50141987</v>
+        <v>2627491.786850453</v>
       </c>
     </row>
     <row r="4">
@@ -16991,28 +16991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1606.025934982081</v>
+        <v>1944.357039997024</v>
       </c>
       <c r="AB4" t="n">
-        <v>2197.435537106191</v>
+        <v>2660.355081102556</v>
       </c>
       <c r="AC4" t="n">
-        <v>1987.715373564921</v>
+        <v>2406.454525993935</v>
       </c>
       <c r="AD4" t="n">
-        <v>1606025.934982081</v>
+        <v>1944357.039997024</v>
       </c>
       <c r="AE4" t="n">
-        <v>2197435.537106191</v>
+        <v>2660355.081102556</v>
       </c>
       <c r="AF4" t="n">
         <v>3.30219921906942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.78472222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>1987715.373564922</v>
+        <v>2406454.525993935</v>
       </c>
     </row>
     <row r="5">
@@ -17097,28 +17097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1547.681530201545</v>
+        <v>1876.645867266622</v>
       </c>
       <c r="AB5" t="n">
-        <v>2117.606148511985</v>
+        <v>2567.709667366706</v>
       </c>
       <c r="AC5" t="n">
-        <v>1915.504789776896</v>
+        <v>2322.651060516379</v>
       </c>
       <c r="AD5" t="n">
-        <v>1547681.530201545</v>
+        <v>1876645.867266622</v>
       </c>
       <c r="AE5" t="n">
-        <v>2117606.148511985</v>
+        <v>2567709.667366706</v>
       </c>
       <c r="AF5" t="n">
         <v>3.351456484415973e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.76620370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>1915504.789776896</v>
+        <v>2322651.060516379</v>
       </c>
     </row>
     <row r="6">
@@ -17203,28 +17203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1554.984753153004</v>
+        <v>1883.949090218081</v>
       </c>
       <c r="AB6" t="n">
-        <v>2127.598740349627</v>
+        <v>2577.702259204349</v>
       </c>
       <c r="AC6" t="n">
-        <v>1924.543702674245</v>
+        <v>2331.689973413728</v>
       </c>
       <c r="AD6" t="n">
-        <v>1554984.753153004</v>
+        <v>1883949.090218081</v>
       </c>
       <c r="AE6" t="n">
-        <v>2127598.740349627</v>
+        <v>2577702.259204349</v>
       </c>
       <c r="AF6" t="n">
         <v>3.348709067225328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.82407407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>1924543.702674245</v>
+        <v>2331689.973413728</v>
       </c>
     </row>
   </sheetData>
@@ -31649,28 +31649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1882.390103236163</v>
+        <v>2254.527314715773</v>
       </c>
       <c r="AB2" t="n">
-        <v>2575.569184438038</v>
+        <v>3084.743734719696</v>
       </c>
       <c r="AC2" t="n">
-        <v>2329.760476309325</v>
+        <v>2790.340122142954</v>
       </c>
       <c r="AD2" t="n">
-        <v>1882390.103236164</v>
+        <v>2254527.314715773</v>
       </c>
       <c r="AE2" t="n">
-        <v>2575569.184438038</v>
+        <v>3084743.734719696</v>
       </c>
       <c r="AF2" t="n">
         <v>3.226957664326632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.05092592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>2329760.476309325</v>
+        <v>2790340.122142954</v>
       </c>
     </row>
     <row r="3">
@@ -31755,28 +31755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1515.647614008442</v>
+        <v>1850.594110206363</v>
       </c>
       <c r="AB3" t="n">
-        <v>2073.775931139939</v>
+        <v>2532.064504034453</v>
       </c>
       <c r="AC3" t="n">
-        <v>1875.857666834742</v>
+        <v>2290.407821544256</v>
       </c>
       <c r="AD3" t="n">
-        <v>1515647.614008442</v>
+        <v>1850594.110206363</v>
       </c>
       <c r="AE3" t="n">
-        <v>2073775.931139939</v>
+        <v>2532064.504034453</v>
       </c>
       <c r="AF3" t="n">
         <v>3.650768591010153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>70</v>
+        <v>69.87268518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1875857.666834742</v>
+        <v>2290407.821544256</v>
       </c>
     </row>
     <row r="4">
@@ -31861,28 +31861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1464.88582674361</v>
+        <v>1799.798157522751</v>
       </c>
       <c r="AB4" t="n">
-        <v>2004.321414352195</v>
+        <v>2462.563240613461</v>
       </c>
       <c r="AC4" t="n">
-        <v>1813.031791649194</v>
+        <v>2227.539661158527</v>
       </c>
       <c r="AD4" t="n">
-        <v>1464885.82674361</v>
+        <v>1799798.157522751</v>
       </c>
       <c r="AE4" t="n">
-        <v>2004321.414352195</v>
+        <v>2462563.240613461</v>
       </c>
       <c r="AF4" t="n">
         <v>3.711816758816359e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>69</v>
+        <v>68.71527777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>1813031.791649194</v>
+        <v>2227539.661158527</v>
       </c>
     </row>
   </sheetData>
@@ -32158,28 +32158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1314.987724486392</v>
+        <v>1661.35841541323</v>
       </c>
       <c r="AB2" t="n">
-        <v>1799.224217806323</v>
+        <v>2273.143877928841</v>
       </c>
       <c r="AC2" t="n">
-        <v>1627.508783685936</v>
+        <v>2056.198216596782</v>
       </c>
       <c r="AD2" t="n">
-        <v>1314987.724486392</v>
+        <v>1661358.41541323</v>
       </c>
       <c r="AE2" t="n">
-        <v>1799224.217806323</v>
+        <v>2273143.877928841</v>
       </c>
       <c r="AF2" t="n">
         <v>4.642217100943504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.67361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1627508.783685936</v>
+        <v>2056198.216596782</v>
       </c>
     </row>
     <row r="3">
@@ -32264,28 +32264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1323.617666342181</v>
+        <v>1669.988357269019</v>
       </c>
       <c r="AB3" t="n">
-        <v>1811.032084979578</v>
+        <v>2284.951745102096</v>
       </c>
       <c r="AC3" t="n">
-        <v>1638.189724588622</v>
+        <v>2066.879157499467</v>
       </c>
       <c r="AD3" t="n">
-        <v>1323617.666342181</v>
+        <v>1669988.357269019</v>
       </c>
       <c r="AE3" t="n">
-        <v>1811032.084979578</v>
+        <v>2284951.745102096</v>
       </c>
       <c r="AF3" t="n">
         <v>4.643383047722593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>73</v>
+        <v>72.66203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1638189.724588622</v>
+        <v>2066879.157499467</v>
       </c>
     </row>
   </sheetData>
@@ -32561,28 +32561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3587.501183296077</v>
+        <v>4097.180267000761</v>
       </c>
       <c r="AB2" t="n">
-        <v>4908.577388368087</v>
+        <v>5605.942796147106</v>
       </c>
       <c r="AC2" t="n">
-        <v>4440.109651653685</v>
+        <v>5070.919483672745</v>
       </c>
       <c r="AD2" t="n">
-        <v>3587501.183296077</v>
+        <v>4097180.267000761</v>
       </c>
       <c r="AE2" t="n">
-        <v>4908577.388368087</v>
+        <v>5605942.796147106</v>
       </c>
       <c r="AF2" t="n">
         <v>1.769931787164505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>103</v>
+        <v>102.3958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4440109.651653686</v>
+        <v>5070919.483672745</v>
       </c>
     </row>
     <row r="3">
@@ -32667,28 +32667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2477.474261887523</v>
+        <v>2871.843773930866</v>
       </c>
       <c r="AB3" t="n">
-        <v>3389.789583565239</v>
+        <v>3929.38334829793</v>
       </c>
       <c r="AC3" t="n">
-        <v>3066.272823309206</v>
+        <v>3554.368516460393</v>
       </c>
       <c r="AD3" t="n">
-        <v>2477474.261887523</v>
+        <v>2871843.773930866</v>
       </c>
       <c r="AE3" t="n">
-        <v>3389789.583565239</v>
+        <v>3929383.34829793</v>
       </c>
       <c r="AF3" t="n">
         <v>2.271331555588883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>80</v>
+        <v>79.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3066272.823309206</v>
+        <v>3554368.516460394</v>
       </c>
     </row>
     <row r="4">
@@ -32773,28 +32773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2195.266439577596</v>
+        <v>2560.774646044287</v>
       </c>
       <c r="AB4" t="n">
-        <v>3003.66039095034</v>
+        <v>3503.764844122114</v>
       </c>
       <c r="AC4" t="n">
-        <v>2716.995258901762</v>
+        <v>3169.370444963812</v>
       </c>
       <c r="AD4" t="n">
-        <v>2195266.439577595</v>
+        <v>2560774.646044287</v>
       </c>
       <c r="AE4" t="n">
-        <v>3003660.39095034</v>
+        <v>3503764.844122115</v>
       </c>
       <c r="AF4" t="n">
         <v>2.457986310105391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>74</v>
+        <v>73.73842592592594</v>
       </c>
       <c r="AH4" t="n">
-        <v>2716995.258901762</v>
+        <v>3169370.444963812</v>
       </c>
     </row>
     <row r="5">
@@ -32879,28 +32879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2051.856420922367</v>
+        <v>2407.710026778064</v>
       </c>
       <c r="AB5" t="n">
-        <v>2807.440476622585</v>
+        <v>3294.335079307637</v>
       </c>
       <c r="AC5" t="n">
-        <v>2539.502297801182</v>
+        <v>2979.928362966715</v>
       </c>
       <c r="AD5" t="n">
-        <v>2051856.420922367</v>
+        <v>2407710.026778064</v>
       </c>
       <c r="AE5" t="n">
-        <v>2807440.476622585</v>
+        <v>3294335.079307638</v>
       </c>
       <c r="AF5" t="n">
         <v>2.556011374138389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>71</v>
+        <v>70.90277777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>2539502.297801182</v>
+        <v>2979928.362966715</v>
       </c>
     </row>
     <row r="6">
@@ -32985,28 +32985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1967.540406154893</v>
+        <v>2304.154152656012</v>
       </c>
       <c r="AB6" t="n">
-        <v>2692.075585457683</v>
+        <v>3152.645363771105</v>
       </c>
       <c r="AC6" t="n">
-        <v>2435.147669933415</v>
+        <v>2851.76131501823</v>
       </c>
       <c r="AD6" t="n">
-        <v>1967540.406154893</v>
+        <v>2304154.152656012</v>
       </c>
       <c r="AE6" t="n">
-        <v>2692075.585457683</v>
+        <v>3152645.363771105</v>
       </c>
       <c r="AF6" t="n">
         <v>2.616611533532591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>70</v>
+        <v>69.27083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2435147.669933415</v>
+        <v>2851761.31501823</v>
       </c>
     </row>
     <row r="7">
@@ -33091,28 +33091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1902.296497330363</v>
+        <v>2238.876078412701</v>
       </c>
       <c r="AB7" t="n">
-        <v>2602.805991045848</v>
+        <v>3063.329022726017</v>
       </c>
       <c r="AC7" t="n">
-        <v>2354.397840321584</v>
+        <v>2770.969200206217</v>
       </c>
       <c r="AD7" t="n">
-        <v>1902296.497330363</v>
+        <v>2238876.078412701</v>
       </c>
       <c r="AE7" t="n">
-        <v>2602805.991045848</v>
+        <v>3063329.022726017</v>
       </c>
       <c r="AF7" t="n">
         <v>2.655758923322127e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>69</v>
+        <v>68.24074074074075</v>
       </c>
       <c r="AH7" t="n">
-        <v>2354397.840321584</v>
+        <v>2770969.200206217</v>
       </c>
     </row>
     <row r="8">
@@ -33197,28 +33197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1837.82330000308</v>
+        <v>2174.368715666636</v>
       </c>
       <c r="AB8" t="n">
-        <v>2514.590918105938</v>
+        <v>2975.067203152681</v>
       </c>
       <c r="AC8" t="n">
-        <v>2274.601890132427</v>
+        <v>2691.130964816833</v>
       </c>
       <c r="AD8" t="n">
-        <v>1837823.30000308</v>
+        <v>2174368.715666635</v>
       </c>
       <c r="AE8" t="n">
-        <v>2514590.918105938</v>
+        <v>2975067.203152681</v>
       </c>
       <c r="AF8" t="n">
         <v>2.687859782949546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.43055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>2274601.890132427</v>
+        <v>2691130.964816833</v>
       </c>
     </row>
     <row r="9">
@@ -33303,28 +33303,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1785.621299424438</v>
+        <v>2122.234034895698</v>
       </c>
       <c r="AB9" t="n">
-        <v>2443.165837924512</v>
+        <v>2903.734232902096</v>
       </c>
       <c r="AC9" t="n">
-        <v>2209.993519357786</v>
+        <v>2626.605913130511</v>
       </c>
       <c r="AD9" t="n">
-        <v>1785621.299424438</v>
+        <v>2122234.034895698</v>
       </c>
       <c r="AE9" t="n">
-        <v>2443165.837924512</v>
+        <v>2903734.232902096</v>
       </c>
       <c r="AF9" t="n">
         <v>2.708373015199263e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>67</v>
+        <v>66.92129629629629</v>
       </c>
       <c r="AH9" t="n">
-        <v>2209993.519357786</v>
+        <v>2626605.913130512</v>
       </c>
     </row>
     <row r="10">
@@ -33409,28 +33409,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1784.461285100343</v>
+        <v>2121.074020571602</v>
       </c>
       <c r="AB10" t="n">
-        <v>2441.578655150064</v>
+        <v>2902.147050127648</v>
       </c>
       <c r="AC10" t="n">
-        <v>2208.557815079706</v>
+        <v>2625.170208852432</v>
       </c>
       <c r="AD10" t="n">
-        <v>1784461.285100343</v>
+        <v>2121074.020571602</v>
       </c>
       <c r="AE10" t="n">
-        <v>2441578.655150064</v>
+        <v>2902147.050127648</v>
       </c>
       <c r="AF10" t="n">
         <v>2.708842783876738e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>67</v>
+        <v>66.90972222222223</v>
       </c>
       <c r="AH10" t="n">
-        <v>2208557.815079706</v>
+        <v>2625170.208852432</v>
       </c>
     </row>
   </sheetData>
@@ -33706,28 +33706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4704.898648188477</v>
+        <v>5288.97587950973</v>
       </c>
       <c r="AB2" t="n">
-        <v>6437.449895930964</v>
+        <v>7236.610131493602</v>
       </c>
       <c r="AC2" t="n">
-        <v>5823.068712880744</v>
+        <v>6545.95821718969</v>
       </c>
       <c r="AD2" t="n">
-        <v>4704898.648188476</v>
+        <v>5288975.87950973</v>
       </c>
       <c r="AE2" t="n">
-        <v>6437449.895930964</v>
+        <v>7236610.131493602</v>
       </c>
       <c r="AF2" t="n">
         <v>1.401920582284071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>117</v>
+        <v>116.8171296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>5823068.712880744</v>
+        <v>6545958.21718969</v>
       </c>
     </row>
     <row r="3">
@@ -33812,28 +33812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2977.144494747236</v>
+        <v>3405.373145573427</v>
       </c>
       <c r="AB3" t="n">
-        <v>4073.460440058832</v>
+        <v>4659.381772233995</v>
       </c>
       <c r="AC3" t="n">
-        <v>3684.695092797099</v>
+        <v>4214.696915375196</v>
       </c>
       <c r="AD3" t="n">
-        <v>2977144.494747236</v>
+        <v>3405373.145573427</v>
       </c>
       <c r="AE3" t="n">
-        <v>4073460.440058833</v>
+        <v>4659381.772233996</v>
       </c>
       <c r="AF3" t="n">
         <v>1.919646400872828e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>86</v>
+        <v>85.31249999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>3684695.092797099</v>
+        <v>4214696.915375196</v>
       </c>
     </row>
     <row r="4">
@@ -33918,28 +33918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2581.325620162585</v>
+        <v>2970.608955816936</v>
       </c>
       <c r="AB4" t="n">
-        <v>3531.883593555762</v>
+        <v>4064.518227366766</v>
       </c>
       <c r="AC4" t="n">
-        <v>3194.805580416424</v>
+        <v>3676.606312333889</v>
       </c>
       <c r="AD4" t="n">
-        <v>2581325.620162585</v>
+        <v>2970608.955816936</v>
       </c>
       <c r="AE4" t="n">
-        <v>3531883.593555762</v>
+        <v>4064518.227366766</v>
       </c>
       <c r="AF4" t="n">
         <v>2.117313241148449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>78</v>
+        <v>77.34953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>3194805.580416424</v>
+        <v>3676606.312333889</v>
       </c>
     </row>
     <row r="5">
@@ -34024,28 +34024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2388.535633483208</v>
+        <v>2758.447796778124</v>
       </c>
       <c r="AB5" t="n">
-        <v>3268.099828487084</v>
+        <v>3774.229969680098</v>
       </c>
       <c r="AC5" t="n">
-        <v>2956.19696766307</v>
+        <v>3414.022758538718</v>
       </c>
       <c r="AD5" t="n">
-        <v>2388535.633483208</v>
+        <v>2758447.796778124</v>
       </c>
       <c r="AE5" t="n">
-        <v>3268099.828487084</v>
+        <v>3774229.969680098</v>
       </c>
       <c r="AF5" t="n">
         <v>2.22598048046962e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>74</v>
+        <v>73.5763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2956196.96766307</v>
+        <v>3414022.758538718</v>
       </c>
     </row>
     <row r="6">
@@ -34130,28 +34130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2280.945738243636</v>
+        <v>2641.121572745592</v>
       </c>
       <c r="AB6" t="n">
-        <v>3120.890587289109</v>
+        <v>3613.699053891083</v>
       </c>
       <c r="AC6" t="n">
-        <v>2823.037169835568</v>
+        <v>3268.812688046058</v>
       </c>
       <c r="AD6" t="n">
-        <v>2280945.738243636</v>
+        <v>2641121.572745592</v>
       </c>
       <c r="AE6" t="n">
-        <v>3120890.587289109</v>
+        <v>3613699.053891083</v>
       </c>
       <c r="AF6" t="n">
         <v>2.290360160015366e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>72</v>
+        <v>71.50462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>2823037.169835568</v>
+        <v>3268812.688046058</v>
       </c>
     </row>
     <row r="7">
@@ -34236,28 +34236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2205.865322623339</v>
+        <v>2556.23750852463</v>
       </c>
       <c r="AB7" t="n">
-        <v>3018.162250323247</v>
+        <v>3497.556932403339</v>
       </c>
       <c r="AC7" t="n">
-        <v>2730.113081169605</v>
+        <v>3163.755007626617</v>
       </c>
       <c r="AD7" t="n">
-        <v>2205865.322623339</v>
+        <v>2556237.50852463</v>
       </c>
       <c r="AE7" t="n">
-        <v>3018162.250323247</v>
+        <v>3497556.932403339</v>
       </c>
       <c r="AF7" t="n">
         <v>2.336204151603986e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>71</v>
+        <v>70.10416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2730113.081169605</v>
+        <v>3163755.007626617</v>
       </c>
     </row>
     <row r="8">
@@ -34342,28 +34342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2143.516964334203</v>
+        <v>2484.186986861318</v>
       </c>
       <c r="AB8" t="n">
-        <v>2932.854475896439</v>
+        <v>3398.974230018912</v>
       </c>
       <c r="AC8" t="n">
-        <v>2652.946961003992</v>
+        <v>3074.580899996072</v>
       </c>
       <c r="AD8" t="n">
-        <v>2143516.964334203</v>
+        <v>2484186.986861318</v>
       </c>
       <c r="AE8" t="n">
-        <v>2932854.475896439</v>
+        <v>3398974.230018912</v>
       </c>
       <c r="AF8" t="n">
         <v>2.369455194885855e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>70</v>
+        <v>69.12037037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>2652946.961003992</v>
+        <v>3074580.899996072</v>
       </c>
     </row>
     <row r="9">
@@ -34448,28 +34448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2088.254060124511</v>
+        <v>2428.889917232845</v>
       </c>
       <c r="AB9" t="n">
-        <v>2857.241332329472</v>
+        <v>3323.314339818692</v>
       </c>
       <c r="AC9" t="n">
-        <v>2584.550229735343</v>
+        <v>3006.141883527241</v>
       </c>
       <c r="AD9" t="n">
-        <v>2088254.060124511</v>
+        <v>2428889.917232845</v>
       </c>
       <c r="AE9" t="n">
-        <v>2857241.332329472</v>
+        <v>3323314.339818692</v>
       </c>
       <c r="AF9" t="n">
         <v>2.395631548107751e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>69</v>
+        <v>68.35648148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>2584550.229735343</v>
+        <v>3006141.883527241</v>
       </c>
     </row>
     <row r="10">
@@ -34554,28 +34554,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2039.616741824013</v>
+        <v>2380.319918740052</v>
       </c>
       <c r="AB10" t="n">
-        <v>2790.693607703685</v>
+        <v>3256.858725123743</v>
       </c>
       <c r="AC10" t="n">
-        <v>2524.353726547523</v>
+        <v>2946.02869942774</v>
       </c>
       <c r="AD10" t="n">
-        <v>2039616.741824013</v>
+        <v>2380319.918740052</v>
       </c>
       <c r="AE10" t="n">
-        <v>2790693.607703685</v>
+        <v>3256858.725123743</v>
       </c>
       <c r="AF10" t="n">
         <v>2.417280099691265e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>68</v>
+        <v>67.74305555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>2524353.726547523</v>
+        <v>2946028.69942774</v>
       </c>
     </row>
     <row r="11">
@@ -34660,28 +34660,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2001.791544311172</v>
+        <v>2332.725238045327</v>
       </c>
       <c r="AB11" t="n">
-        <v>2738.939503736675</v>
+        <v>3191.737583268097</v>
       </c>
       <c r="AC11" t="n">
-        <v>2477.538961625783</v>
+        <v>2887.122627952702</v>
       </c>
       <c r="AD11" t="n">
-        <v>2001791.544311172</v>
+        <v>2332725.238045327</v>
       </c>
       <c r="AE11" t="n">
-        <v>2738939.503736675</v>
+        <v>3191737.583268097</v>
       </c>
       <c r="AF11" t="n">
         <v>2.433551886829201e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>68</v>
+        <v>67.29166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2477538.961625783</v>
+        <v>2887122.627952702</v>
       </c>
     </row>
     <row r="12">
@@ -34766,28 +34766,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1956.688003378463</v>
+        <v>2297.357014875721</v>
       </c>
       <c r="AB12" t="n">
-        <v>2677.226849204751</v>
+        <v>3143.345219991555</v>
       </c>
       <c r="AC12" t="n">
-        <v>2421.716076228132</v>
+        <v>2843.348763908167</v>
       </c>
       <c r="AD12" t="n">
-        <v>1956688.003378463</v>
+        <v>2297357.014875721</v>
       </c>
       <c r="AE12" t="n">
-        <v>2677226.849204752</v>
+        <v>3143345.219991555</v>
       </c>
       <c r="AF12" t="n">
         <v>2.446286328937152e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>67</v>
+        <v>66.94444444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>2421716.076228132</v>
+        <v>2843348.763908167</v>
       </c>
     </row>
     <row r="13">
@@ -34872,28 +34872,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1938.018585713276</v>
+        <v>2278.687597210533</v>
       </c>
       <c r="AB13" t="n">
-        <v>2651.682528318664</v>
+        <v>3117.800899105466</v>
       </c>
       <c r="AC13" t="n">
-        <v>2398.609669475733</v>
+        <v>2820.242357155768</v>
       </c>
       <c r="AD13" t="n">
-        <v>1938018.585713276</v>
+        <v>2278687.597210533</v>
       </c>
       <c r="AE13" t="n">
-        <v>2651682.528318664</v>
+        <v>3117800.899105466</v>
       </c>
       <c r="AF13" t="n">
         <v>2.452795043792326e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>67</v>
+        <v>66.77083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2398609.669475733</v>
+        <v>2820242.357155768</v>
       </c>
     </row>
     <row r="14">
@@ -34978,28 +34978,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1933.369914603113</v>
+        <v>2274.03892610037</v>
       </c>
       <c r="AB14" t="n">
-        <v>2645.322011420844</v>
+        <v>3111.440382207645</v>
       </c>
       <c r="AC14" t="n">
-        <v>2392.856191383599</v>
+        <v>2814.488879063633</v>
       </c>
       <c r="AD14" t="n">
-        <v>1933369.914603113</v>
+        <v>2274038.92610037</v>
       </c>
       <c r="AE14" t="n">
-        <v>2645322.011420844</v>
+        <v>3111440.382207645</v>
       </c>
       <c r="AF14" t="n">
         <v>2.454492969406719e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>67</v>
+        <v>66.72453703703704</v>
       </c>
       <c r="AH14" t="n">
-        <v>2392856.191383599</v>
+        <v>2814488.879063633</v>
       </c>
     </row>
     <row r="15">
@@ -35084,28 +35084,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1938.953521127089</v>
+        <v>2279.622532624347</v>
       </c>
       <c r="AB15" t="n">
-        <v>2652.961748198283</v>
+        <v>3119.080118985085</v>
       </c>
       <c r="AC15" t="n">
-        <v>2399.766802405437</v>
+        <v>2821.399490085472</v>
       </c>
       <c r="AD15" t="n">
-        <v>1938953.521127089</v>
+        <v>2279622.532624347</v>
       </c>
       <c r="AE15" t="n">
-        <v>2652961.748198283</v>
+        <v>3119080.118985085</v>
       </c>
       <c r="AF15" t="n">
         <v>2.455058944611517e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>67</v>
+        <v>66.7013888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>2399766.802405437</v>
+        <v>2821399.490085472</v>
       </c>
     </row>
   </sheetData>
@@ -35381,28 +35381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1278.267705881921</v>
+        <v>1639.28466412736</v>
       </c>
       <c r="AB2" t="n">
-        <v>1748.982268378796</v>
+        <v>2242.941597594336</v>
       </c>
       <c r="AC2" t="n">
-        <v>1582.061855396754</v>
+        <v>2028.878399508236</v>
       </c>
       <c r="AD2" t="n">
-        <v>1278267.705881921</v>
+        <v>1639284.66412736</v>
       </c>
       <c r="AE2" t="n">
-        <v>1748982.268378796</v>
+        <v>2242941.597594336</v>
       </c>
       <c r="AF2" t="n">
         <v>5.144735168571048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.22222222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>1582061.855396754</v>
+        <v>2028878.399508236</v>
       </c>
     </row>
   </sheetData>
@@ -35678,28 +35678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2469.29134418422</v>
+        <v>2894.061381843328</v>
       </c>
       <c r="AB2" t="n">
-        <v>3378.59335455873</v>
+        <v>3959.782459615445</v>
       </c>
       <c r="AC2" t="n">
-        <v>3056.145146685072</v>
+        <v>3581.866379259185</v>
       </c>
       <c r="AD2" t="n">
-        <v>2469291.34418422</v>
+        <v>2894061.381843328</v>
       </c>
       <c r="AE2" t="n">
-        <v>3378593.35455873</v>
+        <v>3959782.459615445</v>
       </c>
       <c r="AF2" t="n">
         <v>2.484825805911599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>87.16435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>3056145.146685072</v>
+        <v>3581866.379259185</v>
       </c>
     </row>
     <row r="3">
@@ -35784,28 +35784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1893.547004706278</v>
+        <v>2252.316772568271</v>
       </c>
       <c r="AB3" t="n">
-        <v>2590.834549237203</v>
+        <v>3081.719173431246</v>
       </c>
       <c r="AC3" t="n">
-        <v>2343.568936117132</v>
+        <v>2787.604220738876</v>
       </c>
       <c r="AD3" t="n">
-        <v>1893547.004706278</v>
+        <v>2252316.772568271</v>
       </c>
       <c r="AE3" t="n">
-        <v>2590834.549237203</v>
+        <v>3081719.173431246</v>
       </c>
       <c r="AF3" t="n">
         <v>2.946496634589405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>73.50694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2343568.936117132</v>
+        <v>2787604.220738877</v>
       </c>
     </row>
     <row r="4">
@@ -35890,28 +35890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1713.023453349316</v>
+        <v>2052.907005490277</v>
       </c>
       <c r="AB4" t="n">
-        <v>2343.834262133602</v>
+        <v>2808.877932776921</v>
       </c>
       <c r="AC4" t="n">
-        <v>2120.142009747618</v>
+        <v>2540.802565157629</v>
       </c>
       <c r="AD4" t="n">
-        <v>1713023.453349316</v>
+        <v>2052907.005490277</v>
       </c>
       <c r="AE4" t="n">
-        <v>2343834.262133603</v>
+        <v>2808877.93277692</v>
       </c>
       <c r="AF4" t="n">
         <v>3.111365706362873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>70</v>
+        <v>69.61805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>2120142.009747618</v>
+        <v>2540802.565157629</v>
       </c>
     </row>
     <row r="5">
@@ -35996,28 +35996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1608.059035056852</v>
+        <v>1938.499479337299</v>
       </c>
       <c r="AB5" t="n">
-        <v>2200.217314322537</v>
+        <v>2652.340508190582</v>
       </c>
       <c r="AC5" t="n">
-        <v>1990.231661867989</v>
+        <v>2399.204852672156</v>
       </c>
       <c r="AD5" t="n">
-        <v>1608059.035056852</v>
+        <v>1938499.479337299</v>
       </c>
       <c r="AE5" t="n">
-        <v>2200217.314322537</v>
+        <v>2652340.508190582</v>
       </c>
       <c r="AF5" t="n">
         <v>3.195203781453128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>68</v>
+        <v>67.78935185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>1990231.661867989</v>
+        <v>2399204.852672156</v>
       </c>
     </row>
     <row r="6">
@@ -36102,28 +36102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1593.297869479976</v>
+        <v>1923.738313760423</v>
       </c>
       <c r="AB6" t="n">
-        <v>2180.020436363591</v>
+        <v>2632.143630231636</v>
       </c>
       <c r="AC6" t="n">
-        <v>1971.962345594948</v>
+        <v>2380.935536399115</v>
       </c>
       <c r="AD6" t="n">
-        <v>1593297.869479976</v>
+        <v>1923738.313760423</v>
       </c>
       <c r="AE6" t="n">
-        <v>2180020.436363591</v>
+        <v>2632143.630231636</v>
       </c>
       <c r="AF6" t="n">
         <v>3.207554926444103e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>68</v>
+        <v>67.52314814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>1971962.345594948</v>
+        <v>2380935.536399115</v>
       </c>
     </row>
   </sheetData>
@@ -36399,28 +36399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3103.938207442051</v>
+        <v>3581.548943223038</v>
       </c>
       <c r="AB2" t="n">
-        <v>4246.945191511705</v>
+        <v>4900.433270905856</v>
       </c>
       <c r="AC2" t="n">
-        <v>3841.622703058681</v>
+        <v>4432.742797331709</v>
       </c>
       <c r="AD2" t="n">
-        <v>3103938.207442051</v>
+        <v>3581548.943223038</v>
       </c>
       <c r="AE2" t="n">
-        <v>4246945.191511706</v>
+        <v>4900433.270905856</v>
       </c>
       <c r="AF2" t="n">
         <v>2.009121752405829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>3841622.703058681</v>
+        <v>4432742.797331709</v>
       </c>
     </row>
     <row r="3">
@@ -36505,28 +36505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2249.446713660759</v>
+        <v>2631.474815561599</v>
       </c>
       <c r="AB3" t="n">
-        <v>3077.792232215924</v>
+        <v>3600.499935127053</v>
       </c>
       <c r="AC3" t="n">
-        <v>2784.052061281649</v>
+        <v>3256.873274651788</v>
       </c>
       <c r="AD3" t="n">
-        <v>2249446.713660758</v>
+        <v>2631474.815561599</v>
       </c>
       <c r="AE3" t="n">
-        <v>3077792.232215924</v>
+        <v>3600499.935127053</v>
       </c>
       <c r="AF3" t="n">
         <v>2.496196719834065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>78</v>
+        <v>77.26851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>2784052.061281648</v>
+        <v>3256873.274651788</v>
       </c>
     </row>
     <row r="4">
@@ -36611,28 +36611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2014.08406402062</v>
+        <v>2367.481487492878</v>
       </c>
       <c r="AB4" t="n">
-        <v>2755.758671510837</v>
+        <v>3239.292617099746</v>
       </c>
       <c r="AC4" t="n">
-        <v>2492.752931633429</v>
+        <v>2930.139076099367</v>
       </c>
       <c r="AD4" t="n">
-        <v>2014084.06402062</v>
+        <v>2367481.487492878</v>
       </c>
       <c r="AE4" t="n">
-        <v>2755758.671510838</v>
+        <v>3239292.617099746</v>
       </c>
       <c r="AF4" t="n">
         <v>2.675163026716694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>73</v>
+        <v>72.0949074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>2492752.93163343</v>
+        <v>2930139.076099367</v>
       </c>
     </row>
     <row r="5">
@@ -36717,28 +36717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1882.676767448462</v>
+        <v>2226.586562779302</v>
       </c>
       <c r="AB5" t="n">
-        <v>2575.961411060037</v>
+        <v>3046.513965261234</v>
       </c>
       <c r="AC5" t="n">
-        <v>2330.115269373014</v>
+        <v>2755.758948225793</v>
       </c>
       <c r="AD5" t="n">
-        <v>1882676.767448462</v>
+        <v>2226586.562779302</v>
       </c>
       <c r="AE5" t="n">
-        <v>2575961.411060038</v>
+        <v>3046513.965261234</v>
       </c>
       <c r="AF5" t="n">
         <v>2.770145144894626e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>69.61805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2330115.269373014</v>
+        <v>2755758.948225792</v>
       </c>
     </row>
     <row r="6">
@@ -36823,28 +36823,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1801.736483947273</v>
+        <v>2136.024011521284</v>
       </c>
       <c r="AB6" t="n">
-        <v>2465.21534434042</v>
+        <v>2922.602287292055</v>
       </c>
       <c r="AC6" t="n">
-        <v>2229.938651828036</v>
+        <v>2643.673226890973</v>
       </c>
       <c r="AD6" t="n">
-        <v>1801736.483947273</v>
+        <v>2136024.011521284</v>
       </c>
       <c r="AE6" t="n">
-        <v>2465215.344340419</v>
+        <v>2922602.287292055</v>
       </c>
       <c r="AF6" t="n">
         <v>2.826801145211286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>69</v>
+        <v>68.22916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2229938.651828036</v>
+        <v>2643673.226890973</v>
       </c>
     </row>
     <row r="7">
@@ -36929,28 +36929,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1736.020595522011</v>
+        <v>2070.273957677241</v>
       </c>
       <c r="AB7" t="n">
-        <v>2375.299966616592</v>
+        <v>2832.64016293498</v>
       </c>
       <c r="AC7" t="n">
-        <v>2148.604671557145</v>
+        <v>2562.296961419904</v>
       </c>
       <c r="AD7" t="n">
-        <v>1736020.595522011</v>
+        <v>2070273.95767724</v>
       </c>
       <c r="AE7" t="n">
-        <v>2375299.966616592</v>
+        <v>2832640.16293498</v>
       </c>
       <c r="AF7" t="n">
         <v>2.86479399248246e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>68</v>
+        <v>67.3263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>2148604.671557145</v>
+        <v>2562296.961419904</v>
       </c>
     </row>
     <row r="8">
@@ -37035,28 +37035,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1715.801768713246</v>
+        <v>2040.568513756916</v>
       </c>
       <c r="AB8" t="n">
-        <v>2347.635675785155</v>
+        <v>2791.995864051496</v>
       </c>
       <c r="AC8" t="n">
-        <v>2123.580621815584</v>
+        <v>2525.531697377227</v>
       </c>
       <c r="AD8" t="n">
-        <v>1715801.768713246</v>
+        <v>2040568.513756915</v>
       </c>
       <c r="AE8" t="n">
-        <v>2347635.675785155</v>
+        <v>2791995.864051496</v>
       </c>
       <c r="AF8" t="n">
         <v>2.876625098430938e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>68</v>
+        <v>67.04861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2123580.621815585</v>
+        <v>2525531.697377227</v>
       </c>
     </row>
     <row r="9">
@@ -37141,28 +37141,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1721.678947937356</v>
+        <v>2046.445692981026</v>
       </c>
       <c r="AB9" t="n">
-        <v>2355.677091682431</v>
+        <v>2800.037279948772</v>
       </c>
       <c r="AC9" t="n">
-        <v>2130.854576265822</v>
+        <v>2532.805651827465</v>
       </c>
       <c r="AD9" t="n">
-        <v>1721678.947937356</v>
+        <v>2046445.692981026</v>
       </c>
       <c r="AE9" t="n">
-        <v>2355677.091682431</v>
+        <v>2800037.279948772</v>
       </c>
       <c r="AF9" t="n">
         <v>2.87629182784084e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>68</v>
+        <v>67.04861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>2130854.576265822</v>
+        <v>2532805.651827465</v>
       </c>
     </row>
   </sheetData>
